--- a/samples/SA-عينة-معروف-تجارة-الكترونية-preview.xlsx
+++ b/samples/SA-عينة-معروف-تجارة-الكترونية-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="859">
   <si>
     <t>ID</t>
   </si>
@@ -400,31 +400,31 @@
     <t>شوكولاتة سارو</t>
   </si>
   <si>
-    <t>البوفيهات والكافيتريات</t>
-  </si>
-  <si>
-    <t>مؤسسة الميل الأخير للتخليص الجمركي</t>
-  </si>
-  <si>
-    <t>استديو أفنان الزهراني</t>
-  </si>
-  <si>
-    <t>شركة قسطاس المستقيم للمحاماة</t>
-  </si>
-  <si>
-    <t>مؤسسة جوهرة العروس للتجارة</t>
+    <t>البوفيهات والك...</t>
+  </si>
+  <si>
+    <t>مؤسسة الميل ال...</t>
+  </si>
+  <si>
+    <t>استديو أفنان ا...</t>
+  </si>
+  <si>
+    <t>شركة قسطاس الم...</t>
+  </si>
+  <si>
+    <t>مؤسسة جوهرة ال...</t>
   </si>
   <si>
     <t>لي كاروز</t>
   </si>
   <si>
-    <t>نظارات المشهور</t>
-  </si>
-  <si>
-    <t>فندق جراند ستار الساحة</t>
-  </si>
-  <si>
-    <t>خدمات اكترونية وتصاميم متاجر</t>
+    <t>نظارات المشهور...</t>
+  </si>
+  <si>
+    <t>فندق جراند ستا...</t>
+  </si>
+  <si>
+    <t>خدمات اكترونية...</t>
   </si>
   <si>
     <t>متجر نجمة</t>
@@ -442,13 +442,13 @@
     <t>دافني كافيه</t>
   </si>
   <si>
-    <t>عقيله جعفري ادخال بيانات</t>
+    <t>عقيله جعفري اد...</t>
   </si>
   <si>
     <t>حصه للهدايا</t>
   </si>
   <si>
-    <t>اساعدك الالكترونية</t>
+    <t>اساعدك الالكتر...</t>
   </si>
   <si>
     <t>سكاي بلانكت</t>
@@ -460,7 +460,7 @@
     <t>ستايلي واو</t>
   </si>
   <si>
-    <t>متجر منزهاوس للعناية بالرجل</t>
+    <t>متجر منزهاوس ل...</t>
   </si>
   <si>
     <t>فرملها</t>
@@ -472,16 +472,16 @@
     <t>اصول العسل</t>
   </si>
   <si>
-    <t>محيط الجزيرة لقطع غيار السيارات</t>
+    <t>محيط الجزيرة ل...</t>
   </si>
   <si>
     <t>دافور</t>
   </si>
   <si>
-    <t>ساره للتصميم و الخدمات الإلكترونية</t>
-  </si>
-  <si>
-    <t>متجر مريم الحربي</t>
+    <t>ساره للتصميم و...</t>
+  </si>
+  <si>
+    <t>متجر مريم الحر...</t>
   </si>
   <si>
     <t>متجر مجك</t>
@@ -490,7 +490,7 @@
     <t>روينا لترفيه</t>
   </si>
   <si>
-    <t>انعكاسات للترفية</t>
+    <t>انعكاسات للترف...</t>
   </si>
   <si>
     <t>سيمس سويتس</t>
@@ -499,22 +499,22 @@
     <t>اميجو</t>
   </si>
   <si>
-    <t>مؤسسة تكامل للخدمات التجارية</t>
+    <t>مؤسسة تكامل لل...</t>
   </si>
   <si>
     <t>أنت تعرفني</t>
   </si>
   <si>
-    <t>مكتب ابراج عسير العقاري</t>
-  </si>
-  <si>
-    <t>منصة خدمة  للخدمات العامة</t>
+    <t>مكتب ابراج عسي...</t>
+  </si>
+  <si>
+    <t>منصة خدمة  للخ...</t>
   </si>
   <si>
     <t>ألاصايل</t>
   </si>
   <si>
-    <t>بروتين النانو للشعر 1</t>
+    <t>بروتين النانو ...</t>
   </si>
   <si>
     <t>شذا جرافيك</t>
@@ -523,34 +523,34 @@
     <t>تطبيق عصفور</t>
   </si>
   <si>
-    <t>الخبيرة للخدمات الألكترونية</t>
-  </si>
-  <si>
-    <t>شركة طريق الموضة للتجارة</t>
-  </si>
-  <si>
-    <t>متجر سامسون قيمنق</t>
-  </si>
-  <si>
-    <t>متجر حياه خضراء</t>
+    <t>الخبيرة للخدما...</t>
+  </si>
+  <si>
+    <t>شركة طريق المو...</t>
+  </si>
+  <si>
+    <t>متجر سامسون قي...</t>
+  </si>
+  <si>
+    <t>متجر حياه خضرا...</t>
   </si>
   <si>
     <t>معا للنباتات</t>
   </si>
   <si>
-    <t>متجر همس بيوتي</t>
+    <t>متجر همس بيوتي...</t>
   </si>
   <si>
     <t>ليالي ديزاين</t>
   </si>
   <si>
-    <t>شركة الحلول الرباعية للاتصالات وتقنية المعلومات</t>
-  </si>
-  <si>
-    <t>النافذة الافتراضية</t>
-  </si>
-  <si>
-    <t>متجر ام اي اكسايت</t>
+    <t>شركة الحلول ال...</t>
+  </si>
+  <si>
+    <t>النافذة الافتر...</t>
+  </si>
+  <si>
+    <t>متجر ام اي اكس...</t>
   </si>
   <si>
     <t>رشة حامض</t>
@@ -559,7 +559,7 @@
     <t>متجر بلاتا</t>
   </si>
   <si>
-    <t>موسسة زايد علي ال سويدة التجارية</t>
+    <t>موسسة زايد علي...</t>
   </si>
   <si>
     <t>معمل سويتلي</t>
@@ -574,10 +574,10 @@
     <t>سنت ستور</t>
   </si>
   <si>
-    <t>عبيد للخدمات الالكتروني</t>
-  </si>
-  <si>
-    <t>مؤسسة شبكة نون للأنظمة الامنية</t>
+    <t>عبيد للخدمات ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة شبكة نون...</t>
   </si>
   <si>
     <t>شور فني</t>
@@ -592,7 +592,7 @@
     <t>كراج جدة</t>
   </si>
   <si>
-    <t>متجر قهوة الشيوخ الاصلية</t>
+    <t>متجر قهوة الشي...</t>
   </si>
   <si>
     <t>متجر شنزن</t>
@@ -601,28 +601,28 @@
     <t>متجر ريان 77</t>
   </si>
   <si>
-    <t>جاي ار عباية لاين</t>
+    <t>جاي ار عباية ل...</t>
   </si>
   <si>
     <t>خطة للتسويق</t>
   </si>
   <si>
-    <t>استديو ام بي للتصميم</t>
+    <t>استديو ام بي ل...</t>
   </si>
   <si>
     <t>مخاوير جده</t>
   </si>
   <si>
-    <t>كلارا للخدمات الطلابية</t>
-  </si>
-  <si>
-    <t>خدمات الكترونية بكل ثقة</t>
+    <t>كلارا للخدمات ...</t>
+  </si>
+  <si>
+    <t>خدمات الكتروني...</t>
   </si>
   <si>
     <t>لاين ليان</t>
   </si>
   <si>
-    <t>مؤسسة انجز يا منجز للوساطة</t>
+    <t>مؤسسة انجز يا ...</t>
   </si>
   <si>
     <t>شمعدان كاندل</t>
@@ -631,13 +631,13 @@
     <t>ويليام</t>
   </si>
   <si>
-    <t>مكتبة صورة ورقة للنسخ والتصوير</t>
+    <t>مكتبة صورة ورق...</t>
   </si>
   <si>
     <t>ساره الخياط</t>
   </si>
   <si>
-    <t>المتجر الذكي١٨</t>
+    <t>المتجر الذكي١٨...</t>
   </si>
   <si>
     <t>متجر برتقالي</t>
@@ -649,7 +649,7 @@
     <t>عبايات حجاب</t>
   </si>
   <si>
-    <t>منصة و تطبيق بيتي</t>
+    <t>منصة و تطبيق ب...</t>
   </si>
   <si>
     <t>نوت سو بيسيك</t>
@@ -658,22 +658,22 @@
     <t>ماي شكوليت</t>
   </si>
   <si>
-    <t>نافذ لك للخدمات الالكترونية</t>
+    <t>نافذ لك للخدما...</t>
   </si>
   <si>
     <t>مخبز كالا</t>
   </si>
   <si>
-    <t>مؤسسة صوت الشفق للاتصالات</t>
+    <t>مؤسسة صوت الشف...</t>
   </si>
   <si>
     <t>يوكارو</t>
   </si>
   <si>
-    <t>ايديا تونتي اكتوبر</t>
-  </si>
-  <si>
-    <t>أنظمة التنفيذ المتقدمة</t>
+    <t>ايديا تونتي اك...</t>
+  </si>
+  <si>
+    <t>أنظمة التنفيذ ...</t>
   </si>
   <si>
     <t>كلو ستوري</t>
@@ -685,10 +685,10 @@
     <t>معهد برودل</t>
   </si>
   <si>
-    <t>انجزني للخدمات العامه</t>
-  </si>
-  <si>
-    <t>Lavanya Dazzah</t>
+    <t>انجزني للخدمات...</t>
+  </si>
+  <si>
+    <t>Lavanya Dazzah...</t>
   </si>
   <si>
     <t>MyTeeth Store</t>
@@ -697,31 +697,31 @@
     <t>7shim</t>
   </si>
   <si>
-    <t>Saro chocolate</t>
-  </si>
-  <si>
-    <t>last mile est for customs clearance</t>
-  </si>
-  <si>
-    <t>Studio Afnan Alzhrani</t>
-  </si>
-  <si>
-    <t>Qastas Al Rectum Law Firm</t>
-  </si>
-  <si>
-    <t>Jwhart Alaroos</t>
+    <t>Saro chocolate...</t>
+  </si>
+  <si>
+    <t>last mile est ...</t>
+  </si>
+  <si>
+    <t>Studio Afnan A...</t>
+  </si>
+  <si>
+    <t>Qastas Al Rect...</t>
+  </si>
+  <si>
+    <t>Jwhart Alaroos...</t>
   </si>
   <si>
     <t>LeCarose</t>
   </si>
   <si>
-    <t>Famous Optical</t>
-  </si>
-  <si>
-    <t>grand star alsaha hotel</t>
-  </si>
-  <si>
-    <t>Electronic services and store designs</t>
+    <t>Famous Optical...</t>
+  </si>
+  <si>
+    <t>grand star als...</t>
+  </si>
+  <si>
+    <t>Electronic ser...</t>
   </si>
   <si>
     <t>Star gift</t>
@@ -739,25 +739,25 @@
     <t>DAFNI CAFE</t>
   </si>
   <si>
-    <t>Ageelah Jaferi Data ENtry</t>
+    <t>Ageelah Jaferi...</t>
   </si>
   <si>
     <t>hessa gifts</t>
   </si>
   <si>
-    <t>Electronic help</t>
+    <t>Electronic hel...</t>
   </si>
   <si>
     <t>Sky Blanket</t>
   </si>
   <si>
-    <t>Khaltat zumred</t>
+    <t>Khaltat zumred...</t>
   </si>
   <si>
     <t>Stayleywow</t>
   </si>
   <si>
-    <t>Menz House Store For Men Care</t>
+    <t>Menz House Sto...</t>
   </si>
   <si>
     <t>Frmlha</t>
@@ -769,13 +769,13 @@
     <t>origins honey</t>
   </si>
   <si>
-    <t>EST OCEAN ALJAZERA</t>
+    <t>EST OCEAN ALJA...</t>
   </si>
   <si>
     <t>dafor</t>
   </si>
   <si>
-    <t>Sarah design for electronic services</t>
+    <t>Sarah design f...</t>
   </si>
   <si>
     <t>Mtjr m</t>
@@ -784,10 +784,10 @@
     <t>MGC STORE</t>
   </si>
   <si>
-    <t>Rowena Funtime</t>
-  </si>
-  <si>
-    <t>Reflections Entertainment</t>
+    <t>Rowena Funtime...</t>
+  </si>
+  <si>
+    <t>Reflections En...</t>
   </si>
   <si>
     <t>Seems Sweets</t>
@@ -796,7 +796,7 @@
     <t>Amigo2024</t>
   </si>
   <si>
-    <t>Takamul Commercial Service Establishment</t>
+    <t>Takamul Commer...</t>
   </si>
   <si>
     <t>you no me</t>
@@ -805,46 +805,46 @@
     <t>Abraj Assir</t>
   </si>
   <si>
-    <t>Service Platform</t>
+    <t>Service Platfo...</t>
   </si>
   <si>
     <t>ALASAYEL</t>
   </si>
   <si>
-    <t>Nano protein hair 1</t>
-  </si>
-  <si>
-    <t>graphic shatha</t>
+    <t>Nano protein h...</t>
+  </si>
+  <si>
+    <t>graphic shatha...</t>
   </si>
   <si>
     <t>Tatbiq Usfur</t>
   </si>
   <si>
-    <t>lilkhadmat alalkutrunia</t>
-  </si>
-  <si>
-    <t>moda way for trade</t>
-  </si>
-  <si>
-    <t>Samson Gaming Store</t>
+    <t>lilkhadmat ala...</t>
+  </si>
+  <si>
+    <t>moda way for t...</t>
+  </si>
+  <si>
+    <t>Samson Gaming ...</t>
   </si>
   <si>
     <t>Green plant</t>
   </si>
   <si>
-    <t>Together plants</t>
-  </si>
-  <si>
-    <t>Hums Beauty Store</t>
+    <t>Together plant...</t>
+  </si>
+  <si>
+    <t>Hums Beauty St...</t>
   </si>
   <si>
     <t>LAYALI DESIGN</t>
   </si>
   <si>
-    <t>quad solutions</t>
-  </si>
-  <si>
-    <t>Virtual window</t>
+    <t>quad solutions...</t>
+  </si>
+  <si>
+    <t>Virtual window...</t>
   </si>
   <si>
     <t>MI Excite</t>
@@ -856,7 +856,7 @@
     <t>Matgr plata</t>
   </si>
   <si>
-    <t>EST ZAED UL SAWEDAH</t>
+    <t>EST ZAED UL SA...</t>
   </si>
   <si>
     <t>SWEETLY</t>
@@ -871,7 +871,7 @@
     <t>CENT STORE</t>
   </si>
   <si>
-    <t>Noon Network Security Systems</t>
+    <t>Noon Network S...</t>
   </si>
   <si>
     <t>surefanni</t>
@@ -880,13 +880,13 @@
     <t>matjar lom</t>
   </si>
   <si>
-    <t>Blackdiamond51</t>
+    <t>Blackdiamond51...</t>
   </si>
   <si>
     <t>Garage Jeddah</t>
   </si>
   <si>
-    <t>The original Shuyukh coffee shop</t>
+    <t>The original S...</t>
   </si>
   <si>
     <t>Shnzn Store</t>
@@ -904,22 +904,22 @@
     <t>MB DESIGN</t>
   </si>
   <si>
-    <t>makhaweerjaddah</t>
-  </si>
-  <si>
-    <t>Clara Services</t>
-  </si>
-  <si>
-    <t>Services Electronic</t>
+    <t>makhaweerjadda...</t>
+  </si>
+  <si>
+    <t>Clara Services...</t>
+  </si>
+  <si>
+    <t>Services Elect...</t>
   </si>
   <si>
     <t>Layan Line</t>
   </si>
   <si>
-    <t>est enjez ya monjez for mediation</t>
-  </si>
-  <si>
-    <t>shameidan kandils</t>
+    <t>est enjez ya m...</t>
+  </si>
+  <si>
+    <t>shameidan kand...</t>
   </si>
   <si>
     <t>williaam</t>
@@ -934,7 +934,7 @@
     <t>bortogali</t>
   </si>
   <si>
-    <t>smart 7 shopper</t>
+    <t>smart 7 shoppe...</t>
   </si>
   <si>
     <t>abaya Hijab</t>
@@ -943,7 +943,7 @@
     <t>Baity</t>
   </si>
   <si>
-    <t>Not So Basic SA</t>
+    <t>Not So Basic S...</t>
   </si>
   <si>
     <t>My Chocolate</t>
@@ -955,28 +955,28 @@
     <t>calla bakery</t>
   </si>
   <si>
-    <t>Sawt Alshafaq Faoundation</t>
+    <t>Sawt Alshafaq ...</t>
   </si>
   <si>
     <t>Ucaro</t>
   </si>
   <si>
-    <t>iDEA 20 october</t>
-  </si>
-  <si>
-    <t>Advanced implementations systems</t>
+    <t>iDEA 20 octobe...</t>
+  </si>
+  <si>
+    <t>Advanced imple...</t>
   </si>
   <si>
     <t>klo store</t>
   </si>
   <si>
-    <t>elgent chocolate</t>
-  </si>
-  <si>
-    <t>PRUDLE INSTITUTE</t>
-  </si>
-  <si>
-    <t>angezny For General Services</t>
+    <t>elgent chocola...</t>
+  </si>
+  <si>
+    <t>PRUDLE INSTITU...</t>
+  </si>
+  <si>
+    <t>angezny For Ge...</t>
   </si>
   <si>
     <t>حفلات</t>
@@ -985,7 +985,7 @@
     <t>أخرى</t>
   </si>
   <si>
-    <t>أطعمة ومشروبات</t>
+    <t>أطعمة ومشروبات...</t>
   </si>
   <si>
     <t>خدمات الأعمال</t>
@@ -1012,178 +1012,172 @@
     <t>المنزل</t>
   </si>
   <si>
-    <t>شركة منصة اسناني التجارية</t>
-  </si>
-  <si>
-    <t>مؤسسة الغيم الحديثة للمقاولات</t>
-  </si>
-  <si>
-    <t>استديو افنان الزهراني للتصوير النسائي</t>
-  </si>
-  <si>
-    <t>مؤسسة الاعتماد المتميز للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة عين المشهور للنظارات</t>
-  </si>
-  <si>
-    <t>فندق الاثافي الراسية الفندقية</t>
-  </si>
-  <si>
-    <t>مؤسسة ارمالا للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة دافني لتقديم المشروبات</t>
-  </si>
-  <si>
-    <t>شركة الحلول الرجالية للتجارة شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة قطرة الحياة التجارية</t>
-  </si>
-  <si>
-    <t>مؤسسة محيط الجزيرة لقطع غيار السيارات</t>
-  </si>
-  <si>
-    <t>مؤسسة اسامه حسن سليم جاموس التجاري</t>
-  </si>
-  <si>
-    <t>شركة المشروعات البينية المتكاملة للتجارة والمقاولات العامة</t>
-  </si>
-  <si>
-    <t>مؤسسة انعكاسات للترفية</t>
-  </si>
-  <si>
-    <t>مؤسسة انت تعرفني للتجارة</t>
-  </si>
-  <si>
-    <t>مكتب أبراج عسير العقاري</t>
-  </si>
-  <si>
-    <t>مكتب منصة خدمة للخدمات العامة</t>
-  </si>
-  <si>
-    <t>مؤسسة تطبيق عصفور لنقل البريد</t>
-  </si>
-  <si>
-    <t>تموينات المطار الجديد للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>شركة بناء المشرق المحدودة</t>
-  </si>
-  <si>
-    <t>مؤسسة نباتات معا التجارية</t>
-  </si>
-  <si>
-    <t>مؤسسة روائع همس التجارية</t>
-  </si>
-  <si>
-    <t>شركة الحلول الرباعية للاتصالات و تقنية المعلومات</t>
-  </si>
-  <si>
-    <t>مؤسسة اضوية للتجارة</t>
-  </si>
-  <si>
-    <t>شركة ذكاء المصفوفة للاتصالات و تقنية المعلومات شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة زايد علي بن محمد ال سويده التجارية</t>
-  </si>
-  <si>
-    <t>مؤسسة ريف الأزهار للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة شبكه نون للأمن والسلامة</t>
-  </si>
-  <si>
-    <t>مؤسسة بطة التجارية</t>
-  </si>
-  <si>
-    <t>مؤسسة التهاني الحديثة للخدمات العقارية</t>
-  </si>
-  <si>
-    <t>مؤسسة قهوه الشيوخ الاصليه للتجارة</t>
-  </si>
-  <si>
-    <t>شركة خطة ذكية لخدمات الأعمال شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مصنع زهرتي لملابس الاطفال</t>
-  </si>
-  <si>
-    <t>مؤسسة اناقة الخيط للتصميم</t>
-  </si>
-  <si>
-    <t>مؤسسة فن سورا للانتاج الفني</t>
-  </si>
-  <si>
-    <t>شركة التطبيقات الحديثة لتقنية المعلومات</t>
-  </si>
-  <si>
-    <t>مؤسسة أنظمة التنفيذ المتقدمة للديكور</t>
-  </si>
-  <si>
-    <t>معهد طموح للغات</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> متجر الكتروني "موقع / تطبيق الكتروني"</t>
-  </si>
-  <si>
-    <t>متجر الكتروني "موقع / تطبيق الكتروني"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> تنسيق مناسبات وحفلات</t>
+    <t>شركة منصة اسنا...</t>
+  </si>
+  <si>
+    <t>مؤسسة الغيم ال...</t>
+  </si>
+  <si>
+    <t>استديو افنان ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة الاعتماد...</t>
+  </si>
+  <si>
+    <t>مؤسسة عين المش...</t>
+  </si>
+  <si>
+    <t>فندق الاثافي ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة ارمالا ل...</t>
+  </si>
+  <si>
+    <t>مؤسسة دافني لت...</t>
+  </si>
+  <si>
+    <t>مؤسسة قطرة الح...</t>
+  </si>
+  <si>
+    <t>مؤسسة محيط الج...</t>
+  </si>
+  <si>
+    <t>مؤسسة اسامه حس...</t>
+  </si>
+  <si>
+    <t>شركة المشروعات...</t>
+  </si>
+  <si>
+    <t>مؤسسة انعكاسات...</t>
+  </si>
+  <si>
+    <t>مؤسسة انت تعرف...</t>
+  </si>
+  <si>
+    <t>مكتب أبراج عسي...</t>
+  </si>
+  <si>
+    <t>مكتب منصة خدمة...</t>
+  </si>
+  <si>
+    <t>مؤسسة تطبيق عص...</t>
+  </si>
+  <si>
+    <t>تموينات المطار...</t>
+  </si>
+  <si>
+    <t>شركة بناء المش...</t>
+  </si>
+  <si>
+    <t>مؤسسة نباتات م...</t>
+  </si>
+  <si>
+    <t>مؤسسة روائع هم...</t>
+  </si>
+  <si>
+    <t>مؤسسة اضوية لل...</t>
+  </si>
+  <si>
+    <t>شركة ذكاء المص...</t>
+  </si>
+  <si>
+    <t>مؤسسة زايد علي...</t>
+  </si>
+  <si>
+    <t>مؤسسة ريف الأز...</t>
+  </si>
+  <si>
+    <t>مؤسسة شبكه نون...</t>
+  </si>
+  <si>
+    <t>مؤسسة بطة التج...</t>
+  </si>
+  <si>
+    <t>مؤسسة التهاني ...</t>
+  </si>
+  <si>
+    <t>مؤسسة قهوه الش...</t>
+  </si>
+  <si>
+    <t>شركة خطة ذكية ...</t>
+  </si>
+  <si>
+    <t>مصنع زهرتي لمل...</t>
+  </si>
+  <si>
+    <t>مؤسسة اناقة ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة فن سورا ...</t>
+  </si>
+  <si>
+    <t>شركة التطبيقات...</t>
+  </si>
+  <si>
+    <t>مؤسسة أنظمة ال...</t>
+  </si>
+  <si>
+    <t>معهد طموح للغا...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> متجر الكتروني...</t>
+  </si>
+  <si>
+    <t>متجر الكتروني ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تنسيق مناسبات...</t>
   </si>
   <si>
     <t xml:space="preserve"> أخرى</t>
   </si>
   <si>
-    <t xml:space="preserve"> مطبخ ومخبوزات</t>
+    <t xml:space="preserve"> مطبخ ومخبوزات...</t>
   </si>
   <si>
     <t>تصوير</t>
   </si>
   <si>
-    <t>متاجر إلكترونية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> إلكترونيات و إكسسوارات</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> متاجر إلكترونية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> حلول إلكترونية</t>
-  </si>
-  <si>
-    <t>الحرف والصناعات اليدوية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خدمات الأعمال</t>
+    <t>متاجر إلكتروني...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> إلكترونيات و ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> متاجر إلكترون...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حلول إلكتروني...</t>
+  </si>
+  <si>
+    <t>الحرف والصناعا...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خدمات الأعمال...</t>
   </si>
   <si>
     <t xml:space="preserve"> هدايا</t>
   </si>
   <si>
-    <t xml:space="preserve"> خدمات أكاديمية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الحرف والصناعات اليدوية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> مستلزمات المرأة</t>
+    <t xml:space="preserve"> خدمات أكاديمي...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الحرف والصناع...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مستلزمات المر...</t>
   </si>
   <si>
     <t xml:space="preserve"> السيارات</t>
   </si>
   <si>
-    <t xml:space="preserve"> أطعمة ومشروبات</t>
+    <t xml:space="preserve"> أطعمة ومشروبا...</t>
   </si>
   <si>
     <t xml:space="preserve"> وسيط عقاري</t>
   </si>
   <si>
-    <t xml:space="preserve"> كوافيرة وتجميل</t>
+    <t xml:space="preserve"> كوافيرة وتجمي...</t>
   </si>
   <si>
     <t xml:space="preserve"> تصميم وطباعة</t>
@@ -1498,49 +1492,43 @@
     <t>تنسيق حفلات</t>
   </si>
   <si>
-    <t>توفير منتجات العناية بالاسنان</t>
-  </si>
-  <si>
-    <t>بيع أقمشة مخاوير</t>
-  </si>
-  <si>
-    <t>نقدم لكم في متجرنا الذ انواع الشوكولاته الممزوجة بالكيك والمكسرات في وصفات متعدده بالإضافه الى أصناف أخرى لإرضاء جميع الاذواق</t>
-  </si>
-  <si>
-    <t>التخليص الجمركي رخصة جمركية رقم  4163</t>
-  </si>
-  <si>
-    <t>موقعنا جدة  حي الحمراء شامل بلازا  لتصوير عرايس  تصوير شخصي تصوير حفلات تخرج  ولجميع مناسباتكم  للحجز  0569667123</t>
-  </si>
-  <si>
-    <t>شركة مهنية تمارس مهنة المحاماة والاستشارات القانونية وتقدم جميع الخدمات القانونية وصياغة العقود ولديها خبراء في المرافعة والمدافعة و تأسيس الشركات وتحويلها ودمجها</t>
-  </si>
-  <si>
-    <t>بيع المفارش واللحافات واللباد والمخدات  تصميم وبيع  الاسماء المطلية  والهدايا</t>
-  </si>
-  <si>
-    <t>اكسسوارات وحلي نسائية ورجالية</t>
-  </si>
-  <si>
-    <t>نظارات المشهور متجر يختص ببيع العدسات اللاصقة و النظارات الطبية و الشمسية مع خدمة التوصيل داخل جدة و الشحن خارجها</t>
-  </si>
-  <si>
-    <t>فندق ثلاث نجوم</t>
-  </si>
-  <si>
-    <t>خدمات اكترونية وتسجل في متاجر وعمل بحوث لطلاب</t>
-  </si>
-  <si>
-    <t>نسعى لنشر ثقافة الهدية بشكل بسيط غير مكلف  تجدون لدينا الكثير من الفن والاشياء الرهيبة</t>
-  </si>
-  <si>
-    <t>متجر مستلزمات رياضية</t>
-  </si>
-  <si>
-    <t>الدعاية و الاعلان و التسويق الرقمي</t>
-  </si>
-  <si>
-    <t>متجر متخصص لبيع مستلزمات الرضع والأطفال</t>
+    <t>توفير منتجات ا...</t>
+  </si>
+  <si>
+    <t>بيع أقمشة مخاو...</t>
+  </si>
+  <si>
+    <t>نقدم لكم في مت...</t>
+  </si>
+  <si>
+    <t>التخليص الجمرك...</t>
+  </si>
+  <si>
+    <t>موقعنا جدة  حي...</t>
+  </si>
+  <si>
+    <t>شركة مهنية تما...</t>
+  </si>
+  <si>
+    <t>بيع المفارش وا...</t>
+  </si>
+  <si>
+    <t>اكسسوارات وحلي...</t>
+  </si>
+  <si>
+    <t>فندق ثلاث نجوم...</t>
+  </si>
+  <si>
+    <t>نسعى لنشر ثقاف...</t>
+  </si>
+  <si>
+    <t>متجر مستلزمات ...</t>
+  </si>
+  <si>
+    <t>الدعاية و الاع...</t>
+  </si>
+  <si>
+    <t>متجر متخصص لبي...</t>
   </si>
   <si>
     <t>كوفي شوب</t>
@@ -1549,160 +1537,144 @@
     <t>ادخال بيانات</t>
   </si>
   <si>
-    <t>تنسيق هدايا وورد وتوصيلها</t>
-  </si>
-  <si>
-    <t>تقديم خدمات تصميم الكترونية وخدمات مصغره احترافية يمكن زيارة حساباتنا لتعرف اكثر عنا</t>
-  </si>
-  <si>
-    <t>المتجر يوفر بطانيات وشالات تصنع بكل حب للتدفئه خلال الشتاء</t>
-  </si>
-  <si>
-    <t>صناعة الصابونية والكريمات والمقشرات للعناية بالبشرة</t>
-  </si>
-  <si>
-    <t>ستايلي واو  لبيع المستلزمات النسائيه من حقائب و ملابس و احذية و نظارات وساعات واكسسورات</t>
-  </si>
-  <si>
-    <t>متجر متخصص في بيع منتجات العناية الشخصية الرجالية والمكملات الغذائية</t>
-  </si>
-  <si>
-    <t>متخصصون في المكابح   فحمات السيراميك، الهوبات الرياضية   الاصلية والجودة العالية الامريكية والكندية  منذُ 2017</t>
-  </si>
-  <si>
-    <t>بيع  و توصيل  المياه المعباة والمواد الغذائية</t>
-  </si>
-  <si>
-    <t>متخصصون في إنتاج واستيراد وتصدير العسل وجميع منتجات النحل والعطارة</t>
-  </si>
-  <si>
-    <t>توفير جميع قطع غيار السيارات</t>
-  </si>
-  <si>
-    <t>متجر دافور لبيع جميع أنواع مواد عزل البناء المائي والحراري والفوم</t>
-  </si>
-  <si>
-    <t>التصميم والخدمات الإلكترونية</t>
+    <t>تنسيق هدايا وو...</t>
+  </si>
+  <si>
+    <t>تقديم خدمات تص...</t>
+  </si>
+  <si>
+    <t>المتجر يوفر بط...</t>
+  </si>
+  <si>
+    <t>صناعة الصابوني...</t>
+  </si>
+  <si>
+    <t>ستايلي واو  لب...</t>
+  </si>
+  <si>
+    <t>متجر متخصص في ...</t>
+  </si>
+  <si>
+    <t>متخصصون في الم...</t>
+  </si>
+  <si>
+    <t>بيع  و توصيل  ...</t>
+  </si>
+  <si>
+    <t>متخصصون في إنت...</t>
+  </si>
+  <si>
+    <t>توفير جميع قطع...</t>
+  </si>
+  <si>
+    <t>متجر دافور لبي...</t>
+  </si>
+  <si>
+    <t>التصميم والخدم...</t>
   </si>
   <si>
     <t>منتجات رقميه</t>
   </si>
   <si>
-    <t>متجر مجك متخصص في بيع المنتجات داخل عالم الالعاب الاكترونيه حيث نهتم بجميع التفاصيل كما ان لدينا مجموعه كبيره من المنتجات بارخص الاسعار وافضل جوده واسرع تسليم</t>
-  </si>
-  <si>
-    <t>تنسيق حفلات للكبار والصغار   ألعاب هوائية والالات تسالي   مهرجات وعاملات</t>
-  </si>
-  <si>
-    <t>تنظيم الفعاليات الترفيهية و تشغيل مرافق الفعاليات الترفيهية</t>
-  </si>
-  <si>
-    <t>حلويات طازجة معدة خصيصاً لك</t>
-  </si>
-  <si>
-    <t>صنع المخللات و الدقوس باستخدام منتجات محليه بجودة عاليه</t>
-  </si>
-  <si>
-    <t>خدمات تجارية عامة</t>
-  </si>
-  <si>
-    <t>بيع عطور ومستلزمات تجميل</t>
-  </si>
-  <si>
-    <t>وسيط معتمد لدى شبكة ايجار    توثيق عقود ايجار سكني و تجاري    أقل  الاسعار  خدمة فورية وعلى مدار 24 ساعة  نسعد بخدمتكم عبر الواتس اب</t>
+    <t>متجر مجك متخصص...</t>
+  </si>
+  <si>
+    <t>تنسيق حفلات لل...</t>
+  </si>
+  <si>
+    <t>تنظيم الفعاليا...</t>
+  </si>
+  <si>
+    <t>حلويات طازجة م...</t>
+  </si>
+  <si>
+    <t>صنع المخللات و...</t>
+  </si>
+  <si>
+    <t>خدمات تجارية ع...</t>
+  </si>
+  <si>
+    <t>بيع عطور ومستل...</t>
+  </si>
+  <si>
+    <t>وسيط معتمد لدى...</t>
   </si>
   <si>
     <t>منصة خدمة</t>
   </si>
   <si>
-    <t>بيع العطور الاصليه</t>
-  </si>
-  <si>
-    <t>بروتين النانو للشعر  وحمايته من التلف والتقصف خلال عملية التسبيل كما يقوم بجعله بمظهر صحي وجميل وناعم كالحرير</t>
-  </si>
-  <si>
-    <t>مصممة جرافيك  بوستر  cv  فيديو قصير  Logo</t>
-  </si>
-  <si>
-    <t>تطبيق توصيل طلبات</t>
-  </si>
-  <si>
-    <t>اقدم لكم جميع الخدمات الالكترونيه   بكل أمانه وصدق وانجاز سريع</t>
-  </si>
-  <si>
-    <t>متجر الكتروني يهتم بالتراثيات والاثاث الشعبي والمفروشات والخيام بالتجزئة والجملة</t>
-  </si>
-  <si>
-    <t>حسابات ستيم   ب ارخص الاسعار   موثوق   الالعاب للتختيم فقط وليس للعب اون لاين  حساب ستيم مشترك</t>
-  </si>
-  <si>
-    <t>متجر متخصص لبيع المستلزمات الزراعيه</t>
-  </si>
-  <si>
-    <t>من مُتع الحياة اقتناء نبتة   نوفر لكم افضل واجود انواع النباتات الداخلية    هدايا حيّة تحيي مكان من تحُب</t>
-  </si>
-  <si>
-    <t>متجر همس بيوتي أفضل متجر لبيع منتجات المكياج والاكسسوارات النسائية</t>
-  </si>
-  <si>
-    <t>بائعة عبايات نسائية وطرح</t>
-  </si>
-  <si>
-    <t>شركة الحلول الرباعية للاتصالات وتقنية المعلومات   معارض   و متجر أجهزة كمبيوتر  احترافية</t>
-  </si>
-  <si>
-    <t>بيع النوافذ الافتراضية</t>
-  </si>
-  <si>
-    <t>متخصصون في بيع الكمبيوترات واجهزة المحمول وملحقاتها واكسسوراتها</t>
-  </si>
-  <si>
-    <t>عمل اكلات شعبية و ورق عنب</t>
-  </si>
-  <si>
-    <t>توزيعات وهدايا مواليد والطباعه والتصميم على الاكريليك</t>
-  </si>
-  <si>
-    <t>وساطة تجارية وتسويق</t>
-  </si>
-  <si>
-    <t>اصنع بعض من الحلويات مثل كوكيز وسان سبستيان وغيرها</t>
-  </si>
-  <si>
-    <t>مستلزمات وفندقة قِطط</t>
-  </si>
-  <si>
-    <t>نقوم في ريف الازهار و التي تأسست عام 2014على أيادي سعودية إستيراد افضل أنواع الورد الهولندي و الأكوادوري لنبتكر تغليف الهدايا للوصول بها الى فضاء التجديد و الإبداع  ساعين للوصول الى رضاكم من خلال تحقيق أعلى معايير الجودة في ارسال الورد والهدايا بأسهل طريقة و أفضل سعر و أكثر من خيار</t>
-  </si>
-  <si>
-    <t>بيع منتجات رقميه وكتب رقميه وخدمات المواقع وتصميمها وعمل متاجر</t>
-  </si>
-  <si>
-    <t>مقدم خدمات الالكترونيه</t>
-  </si>
-  <si>
-    <t>مؤسسة متخصصة في مجال الأنظمة الأمنية نوفر ونقدم الحلول والخدمات ذات القيمة مع احدث التكنولوجيا بمجالات أنظمة الأجهزه الأمنية</t>
-  </si>
-  <si>
-    <t>منصة تربط بين اصحاب الورش و الفنيين من جهة وملاك المركبات</t>
-  </si>
-  <si>
-    <t>حلويات ومخبوزات وبوفيه</t>
-  </si>
-  <si>
-    <t>تصميم عبايات وملابس نسائية</t>
-  </si>
-  <si>
-    <t>بيع و تحديد قطع غيار بخاخا سيارات البنزين</t>
-  </si>
-  <si>
-    <t>متجر متخصص في القهوة السعودية و الاجنبية و مشتقاتها و التمور و التوابل و المكسرات و الحلويات</t>
-  </si>
-  <si>
-    <t>شنزن مهتم بالاشتراكات الرقمية وبأدوات العناية والتجميل والعطور ، يوجد لدينا أحدث وأفضل المنتجات العالمية هدفنا توفير كل هذا بأسعار تناسب الجميع</t>
-  </si>
-  <si>
-    <t>متجر لمستلزمات الجوال</t>
+    <t>بيع العطور الا...</t>
+  </si>
+  <si>
+    <t>مصممة جرافيك
+ب...</t>
+  </si>
+  <si>
+    <t>تطبيق توصيل طل...</t>
+  </si>
+  <si>
+    <t>اقدم لكم جميع ...</t>
+  </si>
+  <si>
+    <t>حسابات ستيم 
+ب...</t>
+  </si>
+  <si>
+    <t>من مُتع الحياة...</t>
+  </si>
+  <si>
+    <t>بائعة عبايات ن...</t>
+  </si>
+  <si>
+    <t>بيع النوافذ ال...</t>
+  </si>
+  <si>
+    <t>متخصصون في بيع...</t>
+  </si>
+  <si>
+    <t>عمل اكلات شعبي...</t>
+  </si>
+  <si>
+    <t>توزيعات وهدايا...</t>
+  </si>
+  <si>
+    <t>وساطة تجارية و...</t>
+  </si>
+  <si>
+    <t>اصنع بعض من ال...</t>
+  </si>
+  <si>
+    <t>مستلزمات وفندق...</t>
+  </si>
+  <si>
+    <t>نقوم في ريف ال...</t>
+  </si>
+  <si>
+    <t>بيع منتجات رقم...</t>
+  </si>
+  <si>
+    <t>مقدم خدمات الا...</t>
+  </si>
+  <si>
+    <t>مؤسسة متخصصة ف...</t>
+  </si>
+  <si>
+    <t>منصة تربط بين ...</t>
+  </si>
+  <si>
+    <t>حلويات ومخبوزا...</t>
+  </si>
+  <si>
+    <t>تصميم عبايات و...</t>
+  </si>
+  <si>
+    <t>بيع و تحديد قط...</t>
+  </si>
+  <si>
+    <t>شنزن مهتم بالا...</t>
+  </si>
+  <si>
+    <t>متجر لمستلزمات...</t>
   </si>
   <si>
     <t>متجر عبايات</t>
@@ -1711,82 +1683,73 @@
     <t>خدمات تسويقية</t>
   </si>
   <si>
-    <t>تصاميم مخططات وتوزيع فراغات داخلية وخارجية ومخططات تنفيذية ومناظير ثري دي لجميع الاعمال المعمارية</t>
-  </si>
-  <si>
-    <t>مخاوير جوده عاليه البيع جمله وتجزئه التوصيل لجميع مناطق المملكه  جميع المخاوير لدينا اقمشة</t>
-  </si>
-  <si>
-    <t>خدمات طلابية لتسهيل حياة الطالب</t>
-  </si>
-  <si>
-    <t>خدمات الكترونية تحت سقف واحد   تسجيل وتقديم للمواقع الحكومية    الضمان الاجتماعي المطور   حساب المواطن   حافز   جدارة   جامعات   وظائف</t>
+    <t>تصاميم مخططات ...</t>
+  </si>
+  <si>
+    <t>مخاوير جوده عا...</t>
+  </si>
+  <si>
+    <t>خدمات طلابية ل...</t>
   </si>
   <si>
     <t>شنط نسائيه</t>
   </si>
   <si>
-    <t>وساطة تجارية لحفظ حق الطرفين</t>
-  </si>
-  <si>
-    <t>صناعه الشموع الطبيعيه والديكورات الحبسيه</t>
-  </si>
-  <si>
-    <t>متجر لبيع الالعاب الخاصه بالصغار والكبار والالكترونيات</t>
-  </si>
-  <si>
-    <t>جميع الخدمات الإلكترونية   أبشر   وزارة التجارة   وزارة العمل    الضمان   التأهيل   التأمينات   بلدي   تقديم وظائف   بنك التنمية   دعم الريف     تصوير   طباعة    تغليف وجميع الخدمات الإلكترونية في أسرع وقت وأعلى جودة نسعد بخدمتكم دائماً</t>
+    <t>وساطة تجارية ل...</t>
+  </si>
+  <si>
+    <t>صناعه الشموع ا...</t>
+  </si>
+  <si>
+    <t>متجر لبيع الال...</t>
+  </si>
+  <si>
+    <t>جميع الخدمات ا...</t>
   </si>
   <si>
     <t>تصميم عبايات</t>
   </si>
   <si>
-    <t>الكترونيات ومستلزماتها</t>
+    <t>الكترونيات ومس...</t>
   </si>
   <si>
     <t>متجر الكتروني</t>
   </si>
   <si>
-    <t>متجر لمنتجات رقمية</t>
-  </si>
-  <si>
-    <t>منصة و تطبيق بيتي هي منصة متخصصة لخدمات التصميم الداخلي والخارجي ومنتجات تأثيث المنزل.  ان منصة بيتي هي علامة تجارية مملوكة لشركة التطبيقات الحديثة لتقنيةالمعلومات المتخصصة في التجارة اللإلكترونية و التجارة عبر الإنترنت.</t>
-  </si>
-  <si>
-    <t>We sell unique clothes and accessories that stand out from the crowd</t>
-  </si>
-  <si>
-    <t>المتجر خاص بالحلويات الباردة و الشكولاتة باشكال و نكهات مختلفة</t>
-  </si>
-  <si>
-    <t>نافذ لك منصة سعودية نقدم عبرها الخدمات الالكترونية كـ تقديم خدمات بنك التنمية الاجتماعية وحجز المواعيد والتسجيل في المواقع الحكومية والوظائف وغيره من الخدمات العامة  التي نسعد بتقديمها لكم</t>
-  </si>
-  <si>
-    <t>مخبز لبيع المعجنات والمخبوزات</t>
-  </si>
-  <si>
-    <t>نقطة بيع معتمدة لمنتجات  بعض شركات الاتصالات المحلية في مكة يتوفر لدينا الخدمات التالية تسجيل شريحة جديدة، شحن وتحويل رصيد،تفعيل باقات،نقل رقم تغيير مشغل للتواصل عبر 0577048898  0578200073  واتس اب  تيلجرام اتصال</t>
-  </si>
-  <si>
-    <t>متجر متخصص في بيع مستلزمات واكسسوارات سيارتك</t>
+    <t>متجر لمنتجات ر...</t>
+  </si>
+  <si>
+    <t>We sell unique...</t>
+  </si>
+  <si>
+    <t>المتجر خاص بال...</t>
+  </si>
+  <si>
+    <t>نافذ لك منصة س...</t>
+  </si>
+  <si>
+    <t>مخبز لبيع المع...</t>
+  </si>
+  <si>
+    <t>نقطة بيع معتمد...</t>
   </si>
   <si>
     <t>صنع الكيك</t>
   </si>
   <si>
-    <t>نعمل على تحسين المساحات الحيوية مثل غرف النوم والمعيشة والمطابخ ودورات المياة</t>
-  </si>
-  <si>
-    <t>عمل متجر الكتروني بيع منتجات رقميه</t>
-  </si>
-  <si>
-    <t>فن الضيافة والتقديم بالشوكلاتة لجيمع المناسبات</t>
-  </si>
-  <si>
-    <t>معهد تعليم لغات</t>
-  </si>
-  <si>
-    <t>ادارة وتنشيط المبيعات التي تهدف الى تحسين عمليات البيع وزيادة الايرادات من خلال تسويق وتنفيذ خطط ترويجية لجذب العملاء وتحفيزهم على الشراء بثقه عالية</t>
+    <t>نعمل على تحسين...</t>
+  </si>
+  <si>
+    <t>عمل متجر الكتر...</t>
+  </si>
+  <si>
+    <t>فن الضيافة وال...</t>
+  </si>
+  <si>
+    <t>معهد تعليم لغا...</t>
+  </si>
+  <si>
+    <t>ادارة وتنشيط ا...</t>
   </si>
   <si>
     <t>+966534723233</t>
@@ -1813,7 +1776,7 @@
     <t>+966557494629</t>
   </si>
   <si>
-    <t>+9668001242202</t>
+    <t>+9668001242202...</t>
   </si>
   <si>
     <t>+966553630808</t>
@@ -1828,10 +1791,10 @@
     <t>+966510262933</t>
   </si>
   <si>
-    <t>+9668001111210</t>
-  </si>
-  <si>
-    <t>+9668000000000</t>
+    <t>+9668001111210...</t>
+  </si>
+  <si>
+    <t>+9668000000000...</t>
   </si>
   <si>
     <t>+966553263102</t>
@@ -2071,1024 +2034,544 @@
     <t>+966507627868</t>
   </si>
   <si>
-    <t>https://wa.me/966534723233</t>
-  </si>
-  <si>
-    <t>https://wa.me/966509543400</t>
-  </si>
-  <si>
-    <t>https://wa.me/966551293989</t>
-  </si>
-  <si>
-    <t>https://wa.me/966555082330</t>
-  </si>
-  <si>
-    <t>https://wa.me/966555030033</t>
-  </si>
-  <si>
-    <t>https://wa.me/966560369019</t>
-  </si>
-  <si>
-    <t>https://wa.me/966538465564</t>
-  </si>
-  <si>
-    <t>https://wa.me/966554244886</t>
-  </si>
-  <si>
-    <t>https://wa.me/966566556975</t>
-  </si>
-  <si>
-    <t>https://wa.me/966530024342</t>
-  </si>
-  <si>
-    <t>https://wa.me/966505050500</t>
-  </si>
-  <si>
-    <t>https://wa.me/966540367980</t>
-  </si>
-  <si>
-    <t>https://wa.me/966503932775</t>
-  </si>
-  <si>
-    <t>https://wa.me/966538774476</t>
-  </si>
-  <si>
-    <t>https://wa.me/966533662517</t>
-  </si>
-  <si>
-    <t>https://wa.me/966535605940</t>
-  </si>
-  <si>
-    <t>https://wa.me/966597887754</t>
-  </si>
-  <si>
-    <t>https://wa.me/966557494629</t>
-  </si>
-  <si>
-    <t>https://wa.me/966503926628</t>
-  </si>
-  <si>
-    <t>https://wa.me/966553630808</t>
-  </si>
-  <si>
-    <t>https://wa.me/966564433223</t>
-  </si>
-  <si>
-    <t>https://wa.me/966552225825</t>
-  </si>
-  <si>
-    <t>https://wa.me/966569868555</t>
-  </si>
-  <si>
-    <t>https://wa.me/966555454953</t>
-  </si>
-  <si>
-    <t>https://wa.me/966531259233</t>
-  </si>
-  <si>
-    <t>https://wa.me/9660564779826</t>
-  </si>
-  <si>
-    <t>https://wa.me/966505776071</t>
-  </si>
-  <si>
-    <t>https://wa.me/966532229479</t>
-  </si>
-  <si>
-    <t>https://wa.me/966569083545</t>
-  </si>
-  <si>
-    <t>https://wa.me/966567874278</t>
-  </si>
-  <si>
-    <t>https://wa.me/966559991873</t>
-  </si>
-  <si>
-    <t>https://wa.me/966501950091</t>
-  </si>
-  <si>
-    <t>https://wa.me/966543530377</t>
-  </si>
-  <si>
-    <t>https://wa.me/966507997795</t>
-  </si>
-  <si>
-    <t>https://wa.me/9665587494455</t>
-  </si>
-  <si>
-    <t>https://wa.me/966553263102</t>
-  </si>
-  <si>
-    <t>https://wa.me/966550052379</t>
-  </si>
-  <si>
-    <t>https://wa.me/966552265155</t>
-  </si>
-  <si>
-    <t>https://wa.me/966550029278</t>
-  </si>
-  <si>
-    <t>https://wa.me/966576790279</t>
-  </si>
-  <si>
-    <t>https://wa.me/966544264068</t>
-  </si>
-  <si>
-    <t>https://wa.me/966549799265</t>
-  </si>
-  <si>
-    <t>https://wa.me/96650505550819</t>
-  </si>
-  <si>
-    <t>https://wa.me/966582502809</t>
-  </si>
-  <si>
-    <t>https://wa.me/966500320125</t>
-  </si>
-  <si>
-    <t>https://wa.me/966583384518</t>
-  </si>
-  <si>
-    <t>https://wa.me/966581753877</t>
-  </si>
-  <si>
-    <t>https://wa.me/966501550304</t>
-  </si>
-  <si>
-    <t>https://wa.me/966545279528</t>
-  </si>
-  <si>
-    <t>https://wa.me/966576713364</t>
-  </si>
-  <si>
-    <t>https://wa.me/966582545488</t>
-  </si>
-  <si>
-    <t>https://wa.me/966508943299</t>
-  </si>
-  <si>
-    <t>https://wa.me/966548117273</t>
-  </si>
-  <si>
-    <t>https://wa.me/966543804468</t>
-  </si>
-  <si>
-    <t>https://wa.me/966535998120</t>
-  </si>
-  <si>
-    <t>https://wa.me/966535295353</t>
-  </si>
-  <si>
-    <t>https://wa.me/966500952310</t>
-  </si>
-  <si>
-    <t>https://wa.me/966578200073</t>
-  </si>
-  <si>
-    <t>https://wa.me/966531811750</t>
-  </si>
-  <si>
-    <t>https://wa.me/966534433529</t>
-  </si>
-  <si>
-    <t>https://wa.me/966548600591</t>
-  </si>
-  <si>
-    <t>lavanyadazzah1@gmail.com</t>
-  </si>
-  <si>
-    <t>sales@myteeth.sa</t>
-  </si>
-  <si>
-    <t>7shim.2th@gmail.com</t>
-  </si>
-  <si>
-    <t>saraalharby833@gmail.com</t>
-  </si>
-  <si>
-    <t>aaa.sa11155@gmail.com</t>
+    <t>https://wa.me/...</t>
+  </si>
+  <si>
+    <t>lavanyadazzah1...</t>
+  </si>
+  <si>
+    <t>sales@myteeth....</t>
+  </si>
+  <si>
+    <t>7shim.2th@gmai...</t>
+  </si>
+  <si>
+    <t>saraalharby833...</t>
+  </si>
+  <si>
+    <t>aaa.sa11155@gm...</t>
   </si>
   <si>
     <t>info@l-m.sa</t>
   </si>
   <si>
-    <t>dx_afnan@hotmail.com</t>
-  </si>
-  <si>
-    <t>mohamadailkaabi2020@gmail.com</t>
-  </si>
-  <si>
-    <t>info@jwharh.com</t>
-  </si>
-  <si>
-    <t>rom@lecarose-sa.com</t>
-  </si>
-  <si>
-    <t>famous6534@gmail.com</t>
-  </si>
-  <si>
-    <t>grandstaralsaha30@gmail.com</t>
-  </si>
-  <si>
-    <t>reem11423a@gmail.com</t>
-  </si>
-  <si>
-    <t>star.gift@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@bramfit.com</t>
-  </si>
-  <si>
-    <t>saud.binshroua@outlook.sa</t>
-  </si>
-  <si>
-    <t>deema.alaamer22@gmail.com</t>
-  </si>
-  <si>
-    <t>dafni.cafe@outlook.sa</t>
-  </si>
-  <si>
-    <t>namk13922@gmail.com</t>
-  </si>
-  <si>
-    <t>hessaalsabaan@gmail.com</t>
-  </si>
-  <si>
-    <t>roo7e.999@gmail.com</t>
-  </si>
-  <si>
-    <t>ranom109@gmail.com</t>
-  </si>
-  <si>
-    <t>khaltat_zumred@hotmail.com</t>
-  </si>
-  <si>
-    <t>zainabameen2@gmail.com</t>
-  </si>
-  <si>
-    <t>saleh@below.sa</t>
-  </si>
-  <si>
-    <t>support@frmlha.com</t>
-  </si>
-  <si>
-    <t>amt.kindi@gmail.com</t>
-  </si>
-  <si>
-    <t>originshoney.ksa@gmail.com</t>
-  </si>
-  <si>
-    <t>aljazera.est.parts_m@gmail.com</t>
+    <t>dx_afnan@hotma...</t>
+  </si>
+  <si>
+    <t>mohamadailkaab...</t>
+  </si>
+  <si>
+    <t>info@jwharh.co...</t>
+  </si>
+  <si>
+    <t>rom@lecarose-s...</t>
+  </si>
+  <si>
+    <t>famous6534@gma...</t>
+  </si>
+  <si>
+    <t>grandstaralsah...</t>
+  </si>
+  <si>
+    <t>reem11423a@gma...</t>
+  </si>
+  <si>
+    <t>star.gift@hotm...</t>
+  </si>
+  <si>
+    <t>info@bramfit.c...</t>
+  </si>
+  <si>
+    <t>saud.binshroua...</t>
+  </si>
+  <si>
+    <t>deema.alaamer2...</t>
+  </si>
+  <si>
+    <t>dafni.cafe@out...</t>
+  </si>
+  <si>
+    <t>namk13922@gmai...</t>
+  </si>
+  <si>
+    <t>hessaalsabaan@...</t>
+  </si>
+  <si>
+    <t>roo7e.999@gmai...</t>
+  </si>
+  <si>
+    <t>ranom109@gmail...</t>
+  </si>
+  <si>
+    <t>khaltat_zumred...</t>
+  </si>
+  <si>
+    <t>zainabameen2@g...</t>
+  </si>
+  <si>
+    <t>saleh@below.sa...</t>
+  </si>
+  <si>
+    <t>support@frmlha...</t>
+  </si>
+  <si>
+    <t>amt.kindi@gmai...</t>
+  </si>
+  <si>
+    <t>originshoney.k...</t>
+  </si>
+  <si>
+    <t>aljazera.est.p...</t>
   </si>
   <si>
     <t>info@o-ct.com</t>
   </si>
   <si>
-    <t>lamoor2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>mariamalhrby519@gmail.com</t>
-  </si>
-  <si>
-    <t>qhhxzxhbdb@gmail.com</t>
-  </si>
-  <si>
-    <t>rawabi.faisal@gmail.com</t>
-  </si>
-  <si>
-    <t>info@entreflections.com</t>
-  </si>
-  <si>
-    <t>lamees.mdh@gmail.com</t>
-  </si>
-  <si>
-    <t>shoaa1984@gmail.com</t>
-  </si>
-  <si>
-    <t>ask@takamulcorp.com</t>
-  </si>
-  <si>
-    <t>alabdullatifosama@gmail.com</t>
-  </si>
-  <si>
-    <t>alrifdhn@gmail.com</t>
-  </si>
-  <si>
-    <t>sultan.alharthi1987@gmail.com</t>
-  </si>
-  <si>
-    <t>dj1992dj1992@gmail.com</t>
-  </si>
-  <si>
-    <t>ayay000ayay@gmail.com</t>
-  </si>
-  <si>
-    <t>shatha.alshehri@hotmail.com</t>
-  </si>
-  <si>
-    <t>asfoour.111@gmail.com</t>
-  </si>
-  <si>
-    <t>sammar1410@icloud.com</t>
-  </si>
-  <si>
-    <t>modaway@hotmail.com</t>
-  </si>
-  <si>
-    <t>zoooz.root8@gmail.com</t>
-  </si>
-  <si>
-    <t>totamtq66@gmail.com</t>
-  </si>
-  <si>
-    <t>together.20000@outlook.com</t>
-  </si>
-  <si>
-    <t>hamsbeauty001@gmail.com</t>
-  </si>
-  <si>
-    <t>fajeralasmari21@gmail.com</t>
-  </si>
-  <si>
-    <t>nashwan@quadsouq.com</t>
-  </si>
-  <si>
-    <t>awt.ksa@gmail.com</t>
-  </si>
-  <si>
-    <t>store@mi-excite.com</t>
-  </si>
-  <si>
-    <t>nsaud4621@gmail.com</t>
-  </si>
-  <si>
-    <t>ebtesam6216@gmail.com</t>
-  </si>
-  <si>
-    <t>zaid.alsowidah@gmail.com</t>
-  </si>
-  <si>
-    <t>ashwaqrja@gmail.com</t>
-  </si>
-  <si>
-    <t>r__a2030@hotmail.con</t>
-  </si>
-  <si>
-    <t>reefstor@gmail.com</t>
-  </si>
-  <si>
-    <t>cent.store.sa@gmail.com</t>
-  </si>
-  <si>
-    <t>obed-2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>wap8noon@gmail.com</t>
-  </si>
-  <si>
-    <t>surefanni@gmail.com</t>
-  </si>
-  <si>
-    <t>ah535799@gmail.com</t>
-  </si>
-  <si>
-    <t>blackdiamond51.sa@gmail.com</t>
-  </si>
-  <si>
-    <t>darkdeer1681@gmail.com</t>
-  </si>
-  <si>
-    <t>ashuokcaffe@gmail.com</t>
-  </si>
-  <si>
-    <t>mtjrshnzn@gmail.com</t>
-  </si>
-  <si>
-    <t>nesma1430@gmail.com</t>
-  </si>
-  <si>
-    <t>jrabayaline@gmail.com</t>
+    <t>lamoor2009@hot...</t>
+  </si>
+  <si>
+    <t>mariamalhrby51...</t>
+  </si>
+  <si>
+    <t>qhhxzxhbdb@gma...</t>
+  </si>
+  <si>
+    <t>rawabi.faisal@...</t>
+  </si>
+  <si>
+    <t>info@entreflec...</t>
+  </si>
+  <si>
+    <t>lamees.mdh@gma...</t>
+  </si>
+  <si>
+    <t>shoaa1984@gmai...</t>
+  </si>
+  <si>
+    <t>ask@takamulcor...</t>
+  </si>
+  <si>
+    <t>alabdullatifos...</t>
+  </si>
+  <si>
+    <t>alrifdhn@gmail...</t>
+  </si>
+  <si>
+    <t>sultan.alharth...</t>
+  </si>
+  <si>
+    <t>dj1992dj1992@g...</t>
+  </si>
+  <si>
+    <t>ayay000ayay@gm...</t>
+  </si>
+  <si>
+    <t>shatha.alshehr...</t>
+  </si>
+  <si>
+    <t>asfoour.111@gm...</t>
+  </si>
+  <si>
+    <t>sammar1410@icl...</t>
+  </si>
+  <si>
+    <t>modaway@hotmai...</t>
+  </si>
+  <si>
+    <t>zoooz.root8@gm...</t>
+  </si>
+  <si>
+    <t>totamtq66@gmai...</t>
+  </si>
+  <si>
+    <t>together.20000...</t>
+  </si>
+  <si>
+    <t>hamsbeauty001@...</t>
+  </si>
+  <si>
+    <t>fajeralasmari2...</t>
+  </si>
+  <si>
+    <t>nashwan@quadso...</t>
+  </si>
+  <si>
+    <t>awt.ksa@gmail....</t>
+  </si>
+  <si>
+    <t>store@mi-excit...</t>
+  </si>
+  <si>
+    <t>nsaud4621@gmai...</t>
+  </si>
+  <si>
+    <t>ebtesam6216@gm...</t>
+  </si>
+  <si>
+    <t>zaid.alsowidah...</t>
+  </si>
+  <si>
+    <t>ashwaqrja@gmai...</t>
+  </si>
+  <si>
+    <t>r__a2030@hotma...</t>
+  </si>
+  <si>
+    <t>reefstor@gmail...</t>
+  </si>
+  <si>
+    <t>cent.store.sa@...</t>
+  </si>
+  <si>
+    <t>obed-2009@hotm...</t>
+  </si>
+  <si>
+    <t>wap8noon@gmail...</t>
+  </si>
+  <si>
+    <t>surefanni@gmai...</t>
+  </si>
+  <si>
+    <t>ah535799@gmail...</t>
+  </si>
+  <si>
+    <t>blackdiamond51...</t>
+  </si>
+  <si>
+    <t>darkdeer1681@g...</t>
+  </si>
+  <si>
+    <t>ashuokcaffe@gm...</t>
+  </si>
+  <si>
+    <t>mtjrshnzn@gmai...</t>
+  </si>
+  <si>
+    <t>nesma1430@gmai...</t>
+  </si>
+  <si>
+    <t>jrabayaline@gm...</t>
   </si>
   <si>
     <t>info@khuta.sa</t>
   </si>
   <si>
-    <t>mb3design2022@gmail.com</t>
-  </si>
-  <si>
-    <t>somah7000@gmail.com</t>
-  </si>
-  <si>
-    <t>claraofclara@gmail.com</t>
-  </si>
-  <si>
-    <t>aabmm1234@gmail.com</t>
-  </si>
-  <si>
-    <t>layanline08@gmail.com</t>
-  </si>
-  <si>
-    <t>enjez.ya.monjez@gmail.com</t>
-  </si>
-  <si>
-    <t>hhgg41p@gmail.com</t>
-  </si>
-  <si>
-    <t>anger-6@hotmail.com</t>
-  </si>
-  <si>
-    <t>myservices2018@gmai.com</t>
-  </si>
-  <si>
-    <t>sarakhayat2@hotmail.com</t>
-  </si>
-  <si>
-    <t>faresanshh@gmail.com</t>
-  </si>
-  <si>
-    <t>shargawi10@gmail.com</t>
-  </si>
-  <si>
-    <t>rashaalgamdie@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfhfc1010@gmail.com</t>
-  </si>
-  <si>
-    <t>balquhidan@resha.sa</t>
-  </si>
-  <si>
-    <t>maaldakheel@gmail.com</t>
-  </si>
-  <si>
-    <t>ruba.a.alyafie@gmail.com</t>
-  </si>
-  <si>
-    <t>nafithlak@gmail.com</t>
-  </si>
-  <si>
-    <t>asyiabulut@hotmail.com</t>
-  </si>
-  <si>
-    <t>sawtalshafaqg@gmail.com</t>
-  </si>
-  <si>
-    <t>ameeraxi@icloud.com</t>
-  </si>
-  <si>
-    <t>kyuhyunah_bsho@hotmail.com</t>
-  </si>
-  <si>
-    <t>support@aisd.sa</t>
-  </si>
-  <si>
-    <t>khaeld.b52@gmail.com</t>
-  </si>
-  <si>
-    <t>om.dahomi123@gmail.com</t>
-  </si>
-  <si>
-    <t>khd054707@gmail.com</t>
-  </si>
-  <si>
-    <t>anjznyllkhdmatalamt@gmail.com</t>
-  </si>
-  <si>
-    <t>طريق الامير محمد بن سعد  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>13  - الدمام - المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>طريق العروبة  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>اسلام أباد  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>- جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>شارع عبدالرحمن بن أحمد السديري  - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>ابوبكر الصديق  - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>عبدالرحمن بن عوف  - الدمام - المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>عبدالعزيز المداح  - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>- سبت العلايه - منطقة عسير</t>
-  </si>
-  <si>
-    <t>الأمير تركي الأول  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>الخامس عشر المنتزة - سيهات - المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>الرقة  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>الواحة - خميس مشيط - منطقة عسير</t>
-  </si>
-  <si>
-    <t>طريق ديراب  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>يوسف بن عبد العزيز  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>المطار - المدينة المنورة - منطقة المدينة المنورة</t>
-  </si>
-  <si>
-    <t>- الجبيل - المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>العليا العام العليا - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>- الدمام - المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>طريق الامير سلطان الخالدية - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>حمزة بن عبد المطلب  - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>جبل الحضيرة اشبيلية - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>طريق ديراب الشفا - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>- الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>اطلس  - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>النهضة - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>الملك عبد العزيز  - القيصومة - المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>الجنادرية - الرياض - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>الشرق  - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>15  - بلجرشي - منطقة الباحة</t>
-  </si>
-  <si>
-    <t>-  - منطقة الرياض</t>
-  </si>
-  <si>
-    <t>-  - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>شارع الحمدانية العام  - جدة - منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>https://instagram.com/lavanyadazzah?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://myteeth.sa</t>
-  </si>
-  <si>
-    <t>https://salla.sa/hshim</t>
-  </si>
-  <si>
-    <t>https://last-mile.sa</t>
-  </si>
-  <si>
-    <t>https://he1.me/MSmM</t>
-  </si>
-  <si>
-    <t>https://jwharh.com/</t>
-  </si>
-  <si>
-    <t>https://www.lecarose-sa.com</t>
-  </si>
-  <si>
-    <t>https://salla.sa/famous6544.co/YDywaa</t>
-  </si>
-  <si>
-    <t>https://www.grandstaralsahahotel.com</t>
-  </si>
-  <si>
-    <t>https://salla.sa/ryma_design</t>
-  </si>
-  <si>
-    <t>https://salla.sa/star.gift</t>
-  </si>
-  <si>
-    <t>https://www.bramfit.com</t>
-  </si>
-  <si>
-    <t>https://instagram.com/saudbinshroua?r=nametag</t>
-  </si>
-  <si>
-    <t>https://salla.sa/beby.world_</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/asa3dak/</t>
-  </si>
-  <si>
-    <t>https://salla.sa/stayley_wow?fbclid=PAAaYN5npgJwZ-7_sagnZ-R5BuxX06QOWdHXEPV5BZl5hD9SeXKQIS1may0-I</t>
-  </si>
-  <si>
-    <t>https://menzhouse.com/</t>
-  </si>
-  <si>
-    <t>https://frmlha.com/</t>
-  </si>
-  <si>
-    <t>https://origins-honey.com</t>
-  </si>
-  <si>
-    <t>https://dafor-shop.com/ar</t>
-  </si>
-  <si>
-    <t>https://iwtsp.com/966500713480</t>
-  </si>
-  <si>
-    <t>https://twitter.com/reflections_ent?s=20&amp;t=T-wajXNXUuRjCvZqiRsIBQ</t>
-  </si>
-  <si>
-    <t>https://wa.me/message/7KZP67VTCFKDL1</t>
-  </si>
-  <si>
-    <t>https://takamulcorp.com/</t>
-  </si>
-  <si>
-    <t>https://wa.me/message/7J5LHWYFXTX7G1</t>
-  </si>
-  <si>
-    <t>https://bahr.910ths.sa/clients/sultan-alharthi1987-388c493d-c4b3-421f-87d8-1fd8883b4678</t>
-  </si>
-  <si>
-    <t>https://asfor-app.com/</t>
-  </si>
-  <si>
-    <t>https://tariqalmuda.com/</t>
-  </si>
-  <si>
-    <t>https://salla.sa/green.plant.ksa?expires=1611158957&amp;identifier=1226530259&amp;utm_source=dashboard&amp;signature=040539b93e959d76440328b5906fa1e95f1085f79bf91298ff7acf7468529c45</t>
-  </si>
-  <si>
-    <t>https://xeoufj.zid.store/</t>
-  </si>
-  <si>
-    <t>https://hamss.net/</t>
-  </si>
-  <si>
-    <t>https://www.quadsouq.com/</t>
-  </si>
-  <si>
-    <t>https://mi-excite.com/</t>
-  </si>
-  <si>
-    <t>https://salla.sa/mtgr-blata</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/sweetly_sa7?igsh=ampkZGtieGk5Mzc2</t>
-  </si>
-  <si>
-    <t>https://www.reef-flowers.com</t>
-  </si>
-  <si>
-    <t>https://www.store-cent.com</t>
-  </si>
-  <si>
-    <t>https://wsend.co/966550052379</t>
-  </si>
-  <si>
-    <t>https://noon-network-security-systems.com/</t>
-  </si>
-  <si>
-    <t>https://surefanni.com/</t>
-  </si>
-  <si>
-    <t>https://shuyukhcoffee.com/</t>
-  </si>
-  <si>
-    <t>https://shnzn.com</t>
-  </si>
-  <si>
-    <t>https://khuta.sa</t>
-  </si>
-  <si>
-    <t>https://www.mb3design.net</t>
-  </si>
-  <si>
-    <t>https://wtspee.com/966583384518</t>
-  </si>
-  <si>
-    <t>https://salla.sa/layanline.com</t>
-  </si>
-  <si>
-    <t>https://salla.sa/smart-per-510-eczp</t>
-  </si>
-  <si>
-    <t>https://salla.sa/hijab.</t>
-  </si>
-  <si>
-    <t>https://www.baity.sa</t>
-  </si>
-  <si>
-    <t>https://notsobasic.zid.store/</t>
-  </si>
-  <si>
-    <t>https://salla.sa/ucaro</t>
-  </si>
-  <si>
-    <t>https://aisd.sa</t>
-  </si>
-  <si>
-    <t>https://salla.sa/klloi</t>
-  </si>
-  <si>
-    <t>https://prudle.edu.sa/</t>
-  </si>
-  <si>
-    <t>https://t.me/meeme23</t>
-  </si>
-  <si>
-    <t>https://t.me/TOGETHER_20000</t>
-  </si>
-  <si>
-    <t>https://t.me/mtjr_shnzn</t>
-  </si>
-  <si>
-    <t>https://t.me/Enjazni_for_public_services</t>
-  </si>
-  <si>
-    <t>https://instagram.com/myteeth.store</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/afnanphotograph</t>
-  </si>
-  <si>
-    <t>https://instagram.com/jwharhcom</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/gifts_hessa</t>
-  </si>
-  <si>
-    <t>https://instagram.com/sky.blankie</t>
-  </si>
-  <si>
-    <t>https://instagram.com/khaltat_zumred</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mgc.store1</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/abraj3ssir</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/asa.protein1</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/shatha.alshehri_</t>
-  </si>
-  <si>
-    <t>https://instagram.com/green.plant.ksa</t>
-  </si>
-  <si>
-    <t>https://instagram.com/vwindow.sa</t>
-  </si>
-  <si>
-    <t>https://instagram.com/mtjar_lom</t>
-  </si>
-  <si>
-    <t>https://instagram.com/injectorjeedah</t>
-  </si>
-  <si>
-    <t>https://instagram.com/alshuokhcoffee</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mtjr_shnzn</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/matjar_ryan77</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jr_abayaline</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/makhaweerjaddah</t>
-  </si>
-  <si>
-    <t>https://instagram.com/wasattah</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/asrm.ntghh</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/hijab.abaya12</t>
-  </si>
-  <si>
-    <t>https://instagram.com/baityapp</t>
-  </si>
-  <si>
-    <t>https://instagram.com/my_chocolate</t>
-  </si>
-  <si>
-    <t>https://instagram.com/calla.bakery</t>
-  </si>
-  <si>
-    <t>https://instagram.com/elgent_chocolate</t>
-  </si>
-  <si>
-    <t>https://twitter.com/myteethstor</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Afaf0006</t>
-  </si>
-  <si>
-    <t>https://twitter.com/abraj_3ssir</t>
-  </si>
-  <si>
-    <t>https://twitter.com/MIcit_sa</t>
-  </si>
-  <si>
-    <t>https://twitter.com/AlsowidahZaid</t>
-  </si>
-  <si>
-    <t>https://twitter.com/surefanni</t>
-  </si>
-  <si>
-    <t>https://twitter.com/alshuokcoffee</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Mtjr_Shnzn</t>
-  </si>
-  <si>
-    <t>https://twitter.com/MB3_Design</t>
-  </si>
-  <si>
-    <t>https://twitter.com/aa1416aa41</t>
-  </si>
-  <si>
-    <t>https://twitter.com/EnjezM</t>
-  </si>
-  <si>
-    <t>https://twitter.com/AnshhFares</t>
-  </si>
-  <si>
-    <t>https://twitter.com/BaityApp</t>
-  </si>
-  <si>
-    <t>https://twitter.com/undefined</t>
-  </si>
-  <si>
-    <t>https://twitter.com/lebara_makkah</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/Lavanyadazzah</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/namk1392</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/Rowena_funtime</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/S.lifehappy</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/together_20000</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/rashat_hamid</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/Blackdiamond.51</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/Mtjr_Shnzn</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/makhaweerjadda</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/ljxij</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/fares_alonzy</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/Ss0sh077</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/aisd_s</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/myteeth.sa</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ashuokcaffee</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/mtjrshnzn</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/enjez.yamonjez</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100041538526206</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AR</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/2547659645261483</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@i.7shim</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@saro.chocolate</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@star.gift.sa</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@_baby.world?_t=8aybVNSnxIY&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@sky.blankie?_t=8ioYGLv3FnM&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@frmlha</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ejar_sa1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@asa.protein1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@alkhabiratlilkhadamat</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@p321h?is_from_webapp=1&amp;sender_device=pc</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@layali.ksa?_t=8mA5unt8pm5&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@quadsouq</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@suknaa.qat</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@storecent?is_from_webapp=1&amp;sender_device=pc</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@noon.network?lang=ar</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@mtjr_shnzn?_t=8epMvfPR7XF&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@makhaweerjaddah</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@claraservice?_t=8hnAEq6ozHV&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@layanline?_t=8gcO9cPCspV&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@vodka_store_alr9mi</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hijab.abaya12</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@notsobasicsa?_t=8lcicr94iw8&amp;_r=1</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@nafithlak</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@story_cake3</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@aisd_sa</t>
-  </si>
-  <si>
-    <t>https://tiktok.com/@enjzny1</t>
+    <t>mb3design2022@...</t>
+  </si>
+  <si>
+    <t>somah7000@gmai...</t>
+  </si>
+  <si>
+    <t>claraofclara@g...</t>
+  </si>
+  <si>
+    <t>aabmm1234@gmai...</t>
+  </si>
+  <si>
+    <t>layanline08@gm...</t>
+  </si>
+  <si>
+    <t>enjez.ya.monje...</t>
+  </si>
+  <si>
+    <t>hhgg41p@gmail....</t>
+  </si>
+  <si>
+    <t>anger-6@hotmai...</t>
+  </si>
+  <si>
+    <t>myservices2018...</t>
+  </si>
+  <si>
+    <t>sarakhayat2@ho...</t>
+  </si>
+  <si>
+    <t>faresanshh@gma...</t>
+  </si>
+  <si>
+    <t>shargawi10@gma...</t>
+  </si>
+  <si>
+    <t>rashaalgamdie@...</t>
+  </si>
+  <si>
+    <t>ghfhfc1010@gma...</t>
+  </si>
+  <si>
+    <t>balquhidan@res...</t>
+  </si>
+  <si>
+    <t>maaldakheel@gm...</t>
+  </si>
+  <si>
+    <t>ruba.a.alyafie...</t>
+  </si>
+  <si>
+    <t>nafithlak@gmai...</t>
+  </si>
+  <si>
+    <t>asyiabulut@hot...</t>
+  </si>
+  <si>
+    <t>sawtalshafaqg@...</t>
+  </si>
+  <si>
+    <t>ameeraxi@iclou...</t>
+  </si>
+  <si>
+    <t>kyuhyunah_bsho...</t>
+  </si>
+  <si>
+    <t>support@aisd.s...</t>
+  </si>
+  <si>
+    <t>khaeld.b52@gma...</t>
+  </si>
+  <si>
+    <t>om.dahomi123@g...</t>
+  </si>
+  <si>
+    <t>khd054707@gmai...</t>
+  </si>
+  <si>
+    <t>anjznyllkhdmat...</t>
+  </si>
+  <si>
+    <t>طريق الامير مح...</t>
+  </si>
+  <si>
+    <t>13  - الدمام -...</t>
+  </si>
+  <si>
+    <t>طريق العروبة  ...</t>
+  </si>
+  <si>
+    <t>اسلام أباد  - ...</t>
+  </si>
+  <si>
+    <t>- جدة - منطقة ...</t>
+  </si>
+  <si>
+    <t>شارع عبدالرحمن...</t>
+  </si>
+  <si>
+    <t>ابوبكر الصديق ...</t>
+  </si>
+  <si>
+    <t>عبدالرحمن بن ع...</t>
+  </si>
+  <si>
+    <t>عبدالعزيز المد...</t>
+  </si>
+  <si>
+    <t>- سبت العلايه ...</t>
+  </si>
+  <si>
+    <t>الأمير تركي ال...</t>
+  </si>
+  <si>
+    <t>الخامس عشر الم...</t>
+  </si>
+  <si>
+    <t>الرقة  - الريا...</t>
+  </si>
+  <si>
+    <t>الواحة - خميس ...</t>
+  </si>
+  <si>
+    <t>طريق ديراب  - ...</t>
+  </si>
+  <si>
+    <t>يوسف بن عبد ال...</t>
+  </si>
+  <si>
+    <t>المطار - المدي...</t>
+  </si>
+  <si>
+    <t>- الجبيل - الم...</t>
+  </si>
+  <si>
+    <t>العليا العام ا...</t>
+  </si>
+  <si>
+    <t>- الدمام - الم...</t>
+  </si>
+  <si>
+    <t>طريق الامير سل...</t>
+  </si>
+  <si>
+    <t>حمزة بن عبد ال...</t>
+  </si>
+  <si>
+    <t>جبل الحضيرة اش...</t>
+  </si>
+  <si>
+    <t>طريق ديراب الش...</t>
+  </si>
+  <si>
+    <t>- الرياض - منط...</t>
+  </si>
+  <si>
+    <t>اطلس  - جدة - ...</t>
+  </si>
+  <si>
+    <t>النهضة - جدة -...</t>
+  </si>
+  <si>
+    <t>الملك عبد العز...</t>
+  </si>
+  <si>
+    <t>الجنادرية - ال...</t>
+  </si>
+  <si>
+    <t>الشرق  - جدة -...</t>
+  </si>
+  <si>
+    <t>15  - بلجرشي -...</t>
+  </si>
+  <si>
+    <t>-  - منطقة الر...</t>
+  </si>
+  <si>
+    <t>-  - منطقة مكة...</t>
+  </si>
+  <si>
+    <t>شارع الحمدانية...</t>
+  </si>
+  <si>
+    <t>https://instag...</t>
+  </si>
+  <si>
+    <t>https://myteet...</t>
+  </si>
+  <si>
+    <t>https://salla....</t>
+  </si>
+  <si>
+    <t>https://last-m...</t>
+  </si>
+  <si>
+    <t>https://he1.me...</t>
+  </si>
+  <si>
+    <t>https://jwharh...</t>
+  </si>
+  <si>
+    <t>https://www.le...</t>
+  </si>
+  <si>
+    <t>https://www.gr...</t>
+  </si>
+  <si>
+    <t>https://www.br...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>https://menzho...</t>
+  </si>
+  <si>
+    <t>https://frmlha...</t>
+  </si>
+  <si>
+    <t>https://origin...</t>
+  </si>
+  <si>
+    <t>https://dafor-...</t>
+  </si>
+  <si>
+    <t>https://iwtsp....</t>
+  </si>
+  <si>
+    <t>https://twitte...</t>
+  </si>
+  <si>
+    <t>https://takamu...</t>
+  </si>
+  <si>
+    <t>https://bahr.9...</t>
+  </si>
+  <si>
+    <t>https://asfor-...</t>
+  </si>
+  <si>
+    <t>https://tariqa...</t>
+  </si>
+  <si>
+    <t>https://xeoufj...</t>
+  </si>
+  <si>
+    <t>https://hamss....</t>
+  </si>
+  <si>
+    <t>https://www.qu...</t>
+  </si>
+  <si>
+    <t>https://mi-exc...</t>
+  </si>
+  <si>
+    <t>https://www.re...</t>
+  </si>
+  <si>
+    <t>https://www.st...</t>
+  </si>
+  <si>
+    <t>https://wsend....</t>
+  </si>
+  <si>
+    <t>https://noon-n...</t>
+  </si>
+  <si>
+    <t>https://surefa...</t>
+  </si>
+  <si>
+    <t>https://shuyuk...</t>
+  </si>
+  <si>
+    <t>https://shnzn....</t>
+  </si>
+  <si>
+    <t>https://khuta....</t>
+  </si>
+  <si>
+    <t>https://www.mb...</t>
+  </si>
+  <si>
+    <t>https://wtspee...</t>
+  </si>
+  <si>
+    <t>https://www.ba...</t>
+  </si>
+  <si>
+    <t>https://notsob...</t>
+  </si>
+  <si>
+    <t>https://aisd.s...</t>
+  </si>
+  <si>
+    <t>https://prudle...</t>
+  </si>
+  <si>
+    <t>https://t.me/m...</t>
+  </si>
+  <si>
+    <t>https://t.me/T...</t>
+  </si>
+  <si>
+    <t>https://t.me/E...</t>
+  </si>
+  <si>
+    <t>https://www.sn...</t>
+  </si>
+  <si>
+    <t>https://www.fa...</t>
+  </si>
+  <si>
+    <t>https://www.ti...</t>
+  </si>
+  <si>
+    <t>https://tiktok...</t>
   </si>
   <si>
     <t>5</t>
@@ -3574,34 +3057,34 @@
         <v>321</v>
       </c>
       <c r="F2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" t="s">
         <v>370</v>
       </c>
-      <c r="G2" t="s">
-        <v>372</v>
-      </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="L2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="N2" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>880</v>
+        <v>807</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>979</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -3621,40 +3104,40 @@
         <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L3" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="N3" t="s">
-        <v>747</v>
+        <v>674</v>
       </c>
       <c r="O3" t="s">
-        <v>846</v>
+        <v>773</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>881</v>
+        <v>808</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>938</v>
+        <v>807</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>964</v>
+        <v>822</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>992</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -3671,31 +3154,31 @@
         <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L4" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="N4" t="s">
-        <v>748</v>
+        <v>675</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>882</v>
+        <v>809</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>999</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -3712,25 +3195,25 @@
         <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K5" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="N5" t="s">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -3747,28 +3230,28 @@
         <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J6" t="s">
         <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="N6" t="s">
-        <v>750</v>
+        <v>677</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>965</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -3788,31 +3271,31 @@
         <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L7" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="N7" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="O7" t="s">
-        <v>847</v>
+        <v>774</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>883</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -3832,25 +3315,25 @@
         <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L8" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="N8" t="s">
-        <v>752</v>
+        <v>679</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>939</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -3870,31 +3353,31 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L9" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="N9" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
       <c r="O9" t="s">
-        <v>848</v>
+        <v>775</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>884</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -3914,34 +3397,34 @@
         <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L10" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="N10" t="s">
-        <v>754</v>
+        <v>681</v>
       </c>
       <c r="O10" t="s">
-        <v>849</v>
+        <v>776</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>885</v>
+        <v>812</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>940</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -3961,28 +3444,28 @@
         <v>335</v>
       </c>
       <c r="F11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L11" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="N11" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="O11" t="s">
-        <v>850</v>
+        <v>777</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>886</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4002,31 +3485,31 @@
         <v>336</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J12" t="s">
-        <v>502</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="N12" t="s">
-        <v>756</v>
+        <v>683</v>
       </c>
       <c r="O12" t="s">
-        <v>851</v>
+        <v>778</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>887</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -4046,28 +3529,28 @@
         <v>337</v>
       </c>
       <c r="F13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L13" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="N13" t="s">
-        <v>757</v>
+        <v>684</v>
       </c>
       <c r="O13" t="s">
-        <v>852</v>
+        <v>779</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>888</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -4084,28 +3567,28 @@
         <v>324</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J14" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="L14" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N14" t="s">
-        <v>758</v>
+        <v>685</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>889</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -4122,37 +3605,37 @@
         <v>326</v>
       </c>
       <c r="F15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L15" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="N15" t="s">
-        <v>759</v>
+        <v>686</v>
       </c>
       <c r="O15" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>890</v>
+        <v>809</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>1001</v>
+        <v>850</v>
       </c>
       <c r="W15" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X15" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -4172,28 +3655,28 @@
         <v>338</v>
       </c>
       <c r="F16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L16" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="N16" t="s">
-        <v>760</v>
+        <v>687</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>891</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -4210,25 +3693,25 @@
         <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L17" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="N17" t="s">
-        <v>761</v>
+        <v>688</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>892</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -4245,25 +3728,25 @@
         <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J18" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N18" t="s">
-        <v>762</v>
+        <v>689</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>893</v>
+        <v>809</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>1002</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -4283,25 +3766,25 @@
         <v>339</v>
       </c>
       <c r="F19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L19" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="N19" t="s">
-        <v>763</v>
+        <v>690</v>
       </c>
       <c r="O19" t="s">
-        <v>850</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -4318,25 +3801,25 @@
         <v>324</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="N20" t="s">
-        <v>764</v>
+        <v>691</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>980</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -4353,25 +3836,25 @@
         <v>326</v>
       </c>
       <c r="F21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L21" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="N21" t="s">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>941</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -4388,28 +3871,28 @@
         <v>327</v>
       </c>
       <c r="F22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J22" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L22" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="N22" t="s">
-        <v>766</v>
+        <v>693</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>894</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -4426,25 +3909,25 @@
         <v>326</v>
       </c>
       <c r="F23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J23" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N23" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>942</v>
+        <v>807</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>1003</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -4461,25 +3944,25 @@
         <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K24" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="N24" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>943</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -4496,28 +3979,28 @@
         <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J25" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L25" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="N25" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>895</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -4534,31 +4017,31 @@
         <v>322</v>
       </c>
       <c r="E26" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J26" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L26" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="N26" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
       <c r="O26" t="s">
-        <v>850</v>
+        <v>777</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>896</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -4575,31 +4058,31 @@
         <v>329</v>
       </c>
       <c r="F27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J27" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L27" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="N27" t="s">
         <v>698</v>
       </c>
-      <c r="N27" t="s">
-        <v>771</v>
-      </c>
       <c r="P27" s="2" t="s">
-        <v>897</v>
+        <v>818</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>1004</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -4616,28 +4099,28 @@
         <v>322</v>
       </c>
       <c r="E28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G28" t="s">
         <v>322</v>
       </c>
       <c r="H28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J28" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L28" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="N28" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
       <c r="O28" t="s">
-        <v>854</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -4654,34 +4137,34 @@
         <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J29" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K29" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="L29" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="N29" t="s">
-        <v>773</v>
+        <v>700</v>
       </c>
       <c r="O29" t="s">
-        <v>855</v>
+        <v>782</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>898</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -4698,25 +4181,25 @@
         <v>329</v>
       </c>
       <c r="E30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J30" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L30" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="N30" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -4733,28 +4216,28 @@
         <v>322</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J31" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="N31" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>899</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -4771,25 +4254,25 @@
         <v>324</v>
       </c>
       <c r="F32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L32" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="N32" t="s">
-        <v>776</v>
+        <v>703</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>900</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -4806,31 +4289,31 @@
         <v>322</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K33" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="L33" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="N33" t="s">
-        <v>777</v>
+        <v>704</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>934</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -4847,37 +4330,37 @@
         <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H34" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K34" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="L34" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="N34" t="s">
-        <v>778</v>
+        <v>705</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>944</v>
+        <v>816</v>
       </c>
       <c r="W34" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X34" t="s">
-        <v>1028</v>
+        <v>855</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -4894,31 +4377,31 @@
         <v>321</v>
       </c>
       <c r="F35" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" t="s">
         <v>370</v>
       </c>
-      <c r="G35" t="s">
-        <v>372</v>
-      </c>
       <c r="I35" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J35" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K35" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="L35" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="N35" t="s">
-        <v>779</v>
+        <v>706</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>981</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4935,37 +4418,37 @@
         <v>322</v>
       </c>
       <c r="E36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J36" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K36" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="L36" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="N36" t="s">
-        <v>780</v>
+        <v>707</v>
       </c>
       <c r="O36" t="s">
-        <v>856</v>
+        <v>783</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>901</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4982,31 +4465,31 @@
         <v>323</v>
       </c>
       <c r="F37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J37" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K37" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="L37" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="N37" t="s">
-        <v>781</v>
+        <v>708</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>902</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -5023,28 +4506,28 @@
         <v>323</v>
       </c>
       <c r="F38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J38" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L38" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="N38" t="s">
-        <v>782</v>
+        <v>709</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>982</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -5064,25 +4547,25 @@
         <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H39" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J39" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N39" t="s">
-        <v>783</v>
+        <v>710</v>
       </c>
       <c r="O39" t="s">
-        <v>857</v>
+        <v>784</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>903</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -5099,31 +4582,31 @@
         <v>322</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G40" t="s">
         <v>322</v>
       </c>
       <c r="H40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J40" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L40" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="N40" t="s">
-        <v>784</v>
+        <v>711</v>
       </c>
       <c r="O40" t="s">
-        <v>858</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -5140,49 +4623,49 @@
         <v>330</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H41" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L41" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="N41" t="s">
-        <v>785</v>
+        <v>712</v>
       </c>
       <c r="O41" t="s">
-        <v>859</v>
+        <v>786</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>904</v>
+        <v>672</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>945</v>
+        <v>816</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>966</v>
+        <v>822</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>1005</v>
+        <v>850</v>
       </c>
       <c r="W41" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X41" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -5199,28 +4682,28 @@
         <v>324</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L42" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="N42" t="s">
-        <v>786</v>
+        <v>713</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>905</v>
+        <v>824</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -5237,22 +4720,22 @@
         <v>324</v>
       </c>
       <c r="F43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L43" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="N43" t="s">
-        <v>787</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -5269,25 +4752,25 @@
         <v>328</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J44" t="s">
-        <v>534</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s">
-        <v>788</v>
+        <v>715</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>946</v>
+        <v>816</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>1006</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -5304,28 +4787,28 @@
         <v>324</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I45" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J45" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L45" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="N45" t="s">
-        <v>789</v>
+        <v>716</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>947</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -5342,34 +4825,34 @@
         <v>322</v>
       </c>
       <c r="E46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G46" t="s">
         <v>322</v>
       </c>
       <c r="H46" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L46" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="N46" t="s">
-        <v>790</v>
+        <v>717</v>
       </c>
       <c r="O46" t="s">
-        <v>860</v>
+        <v>787</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>906</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -5386,34 +4869,34 @@
         <v>324</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I47" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J47" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L47" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>711</v>
+        <v>672</v>
       </c>
       <c r="N47" t="s">
-        <v>791</v>
+        <v>718</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>1007</v>
+        <v>850</v>
       </c>
       <c r="W47" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X47" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -5433,37 +4916,37 @@
         <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G48" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>538</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="N48" t="s">
-        <v>792</v>
+        <v>719</v>
       </c>
       <c r="O48" t="s">
-        <v>861</v>
+        <v>788</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>907</v>
+        <v>826</v>
       </c>
       <c r="W48" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X48" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -5480,34 +4963,34 @@
         <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K49" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="L49" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="N49" t="s">
-        <v>793</v>
+        <v>720</v>
       </c>
       <c r="O49" t="s">
-        <v>862</v>
+        <v>789</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>1008</v>
+        <v>850</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -5524,34 +5007,34 @@
         <v>324</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G50" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J50" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="L50" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="N50" t="s">
-        <v>794</v>
+        <v>721</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>908</v>
+        <v>809</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>948</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -5568,46 +5051,46 @@
         <v>326</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J51" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K51" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="L51" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="N51" t="s">
-        <v>795</v>
+        <v>722</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>909</v>
+        <v>827</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>935</v>
+        <v>846</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>983</v>
+        <v>848</v>
       </c>
       <c r="W51" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X51" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -5624,34 +5107,34 @@
         <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G52" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J52" t="s">
-        <v>542</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="N52" t="s">
-        <v>796</v>
+        <v>723</v>
       </c>
       <c r="O52" t="s">
-        <v>863</v>
+        <v>790</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>910</v>
+        <v>828</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -5668,25 +5151,25 @@
         <v>322</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I53" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J53" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="L53" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="N53" t="s">
-        <v>797</v>
+        <v>724</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>1009</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -5703,43 +5186,43 @@
         <v>325</v>
       </c>
       <c r="E54" t="s">
-        <v>354</v>
+        <v>176</v>
       </c>
       <c r="F54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J54" t="s">
-        <v>544</v>
+        <v>176</v>
       </c>
       <c r="K54" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="L54" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N54" t="s">
-        <v>798</v>
+        <v>725</v>
       </c>
       <c r="O54" t="s">
-        <v>864</v>
+        <v>791</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>911</v>
+        <v>829</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>1010</v>
+        <v>850</v>
       </c>
       <c r="W54" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X54" t="s">
-        <v>1029</v>
+        <v>856</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -5756,31 +5239,31 @@
         <v>325</v>
       </c>
       <c r="E55" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J55" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L55" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="N55" t="s">
-        <v>799</v>
+        <v>726</v>
       </c>
       <c r="O55" t="s">
-        <v>865</v>
+        <v>792</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>949</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -5797,37 +5280,37 @@
         <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G56" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J56" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="L56" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
       <c r="N56" t="s">
-        <v>800</v>
+        <v>727</v>
       </c>
       <c r="O56" t="s">
-        <v>866</v>
+        <v>793</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>912</v>
+        <v>830</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>967</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -5844,22 +5327,22 @@
         <v>323</v>
       </c>
       <c r="F57" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J57" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N57" t="s">
-        <v>801</v>
+        <v>728</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>984</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5876,31 +5359,31 @@
         <v>324</v>
       </c>
       <c r="F58" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G58" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I58" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J58" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="L58" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>717</v>
+        <v>672</v>
       </c>
       <c r="N58" t="s">
-        <v>802</v>
+        <v>729</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>913</v>
+        <v>809</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5917,37 +5400,37 @@
         <v>322</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J59" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="K59" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="L59" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
       <c r="N59" t="s">
-        <v>803</v>
+        <v>730</v>
       </c>
       <c r="O59" t="s">
-        <v>867</v>
+        <v>794</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>968</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5964,22 +5447,22 @@
         <v>323</v>
       </c>
       <c r="F60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I60" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J60" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="N60" t="s">
-        <v>804</v>
+        <v>731</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>914</v>
+        <v>816</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5996,28 +5479,28 @@
         <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G61" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I61" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J61" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="L61" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="N61" t="s">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="O61" t="s">
-        <v>868</v>
+        <v>795</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>1011</v>
+        <v>850</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -6034,31 +5517,31 @@
         <v>322</v>
       </c>
       <c r="E62" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H62" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J62" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="L62" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="N62" t="s">
-        <v>806</v>
+        <v>733</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>915</v>
+        <v>831</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -6075,34 +5558,34 @@
         <v>324</v>
       </c>
       <c r="F63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I63" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J63" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K63" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="L63" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="N63" t="s">
-        <v>807</v>
+        <v>734</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>1012</v>
+        <v>850</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -6116,28 +5599,28 @@
         <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G64" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J64" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="L64" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="N64" t="s">
-        <v>808</v>
+        <v>735</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>917</v>
+        <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -6154,40 +5637,40 @@
         <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G65" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J65" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="K65" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="L65" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>722</v>
+        <v>672</v>
       </c>
       <c r="N65" t="s">
-        <v>809</v>
+        <v>736</v>
       </c>
       <c r="O65" t="s">
-        <v>869</v>
+        <v>796</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>1013</v>
+        <v>850</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -6204,37 +5687,37 @@
         <v>329</v>
       </c>
       <c r="E66" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G66" t="s">
         <v>329</v>
       </c>
       <c r="H66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J66" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="L66" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="N66" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
       <c r="O66" t="s">
-        <v>870</v>
+        <v>797</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>919</v>
+        <v>835</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>969</v>
+        <v>822</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -6251,34 +5734,34 @@
         <v>323</v>
       </c>
       <c r="F67" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I67" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J67" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="L67" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="N67" t="s">
-        <v>811</v>
+        <v>738</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>950</v>
+        <v>807</v>
       </c>
       <c r="W67" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X67" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -6295,31 +5778,31 @@
         <v>322</v>
       </c>
       <c r="F68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I68" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J68" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="K68" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="L68" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>725</v>
+        <v>672</v>
       </c>
       <c r="N68" t="s">
-        <v>812</v>
+        <v>739</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>985</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -6336,34 +5819,34 @@
         <v>329</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F69" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G69" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J69" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="L69" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>726</v>
+        <v>672</v>
       </c>
       <c r="N69" t="s">
-        <v>813</v>
+        <v>740</v>
       </c>
       <c r="O69" t="s">
-        <v>871</v>
+        <v>798</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>951</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6380,46 +5863,46 @@
         <v>322</v>
       </c>
       <c r="E70" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H70" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J70" t="s">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="L70" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>727</v>
+        <v>672</v>
       </c>
       <c r="N70" t="s">
-        <v>814</v>
+        <v>741</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>920</v>
+        <v>836</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>952</v>
+        <v>807</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>970</v>
+        <v>822</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>993</v>
+        <v>849</v>
       </c>
       <c r="W70" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
       <c r="X70" t="s">
-        <v>1028</v>
+        <v>855</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -6436,49 +5919,49 @@
         <v>322</v>
       </c>
       <c r="F71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G71" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I71" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J71" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K71" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="L71" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="N71" t="s">
-        <v>815</v>
+        <v>742</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>936</v>
+        <v>845</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>953</v>
+        <v>816</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>971</v>
+        <v>822</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>986</v>
+        <v>848</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>994</v>
+        <v>849</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>1014</v>
+        <v>850</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6495,28 +5978,28 @@
         <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I72" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J72" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K72" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="L72" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="N72" t="s">
+        <v>743</v>
+      </c>
+      <c r="R72" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6533,25 +6016,25 @@
         <v>322</v>
       </c>
       <c r="F73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G73" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J73" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="N73" t="s">
-        <v>817</v>
+        <v>744</v>
       </c>
       <c r="O73" t="s">
-        <v>872</v>
+        <v>799</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>955</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6568,31 +6051,31 @@
         <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G74" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J74" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L74" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="N74" t="s">
-        <v>818</v>
+        <v>745</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>922</v>
+        <v>838</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6609,28 +6092,28 @@
         <v>331</v>
       </c>
       <c r="F75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G75" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I75" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J75" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="L75" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="N75" t="s">
-        <v>819</v>
+        <v>746</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>923</v>
+        <v>839</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>972</v>
+        <v>822</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6647,43 +6130,43 @@
         <v>328</v>
       </c>
       <c r="E76" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J76" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K76" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="L76" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>730</v>
+        <v>672</v>
       </c>
       <c r="N76" t="s">
-        <v>820</v>
+        <v>747</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>956</v>
+        <v>816</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>987</v>
+        <v>848</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>1015</v>
+        <v>850</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6700,28 +6183,28 @@
         <v>327</v>
       </c>
       <c r="F77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I77" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J77" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L77" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="N77" t="s">
-        <v>821</v>
+        <v>748</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>1016</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6738,25 +6221,25 @@
         <v>324</v>
       </c>
       <c r="F78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G78" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J78" t="s">
-        <v>568</v>
+        <v>200</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>732</v>
+        <v>672</v>
       </c>
       <c r="N78" t="s">
+        <v>749</v>
+      </c>
+      <c r="S78" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6773,34 +6256,34 @@
         <v>328</v>
       </c>
       <c r="F79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G79" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J79" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="K79" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="L79" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>733</v>
+        <v>672</v>
       </c>
       <c r="N79" t="s">
-        <v>823</v>
+        <v>750</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>925</v>
+        <v>809</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>1017</v>
+        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6820,40 +6303,40 @@
         <v>202</v>
       </c>
       <c r="F80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H80" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J80" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="L80" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>734</v>
+        <v>672</v>
       </c>
       <c r="N80" t="s">
-        <v>824</v>
+        <v>751</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>957</v>
+        <v>807</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>974</v>
+        <v>822</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>995</v>
+        <v>849</v>
       </c>
       <c r="W80" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X80" t="s">
-        <v>1030</v>
+        <v>857</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6870,25 +6353,25 @@
         <v>331</v>
       </c>
       <c r="F81" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G81" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I81" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J81" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L81" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="N81" t="s">
-        <v>825</v>
+        <v>752</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>988</v>
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6905,25 +6388,25 @@
         <v>322</v>
       </c>
       <c r="F82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G82" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I82" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J82" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="L82" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>735</v>
+        <v>672</v>
       </c>
       <c r="N82" t="s">
-        <v>826</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6940,31 +6423,31 @@
         <v>205</v>
       </c>
       <c r="F83" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H83" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="L83" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="N83" t="s">
-        <v>827</v>
+        <v>754</v>
       </c>
       <c r="O83" t="s">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>996</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6981,31 +6464,31 @@
         <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G84" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H84" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J84" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="N84" t="s">
-        <v>828</v>
+        <v>755</v>
       </c>
       <c r="W84" t="s">
-        <v>1027</v>
+        <v>854</v>
       </c>
       <c r="X84" t="s">
-        <v>1027</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -7022,40 +6505,40 @@
         <v>325</v>
       </c>
       <c r="F85" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G85" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I85" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J85" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="L85" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="N85" t="s">
-        <v>829</v>
+        <v>756</v>
       </c>
       <c r="O85" t="s">
-        <v>874</v>
+        <v>801</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>958</v>
+        <v>816</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>975</v>
+        <v>822</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>989</v>
+        <v>848</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>997</v>
+        <v>849</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>1018</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7072,31 +6555,31 @@
         <v>325</v>
       </c>
       <c r="E86" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G86" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H86" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J86" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L86" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>737</v>
+        <v>672</v>
       </c>
       <c r="N86" t="s">
-        <v>830</v>
+        <v>757</v>
       </c>
       <c r="O86" t="s">
-        <v>875</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7113,34 +6596,34 @@
         <v>324</v>
       </c>
       <c r="F87" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G87" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I87" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J87" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L87" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>738</v>
+        <v>672</v>
       </c>
       <c r="N87" t="s">
-        <v>831</v>
+        <v>758</v>
       </c>
       <c r="O87" t="s">
-        <v>876</v>
+        <v>803</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>990</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7157,34 +6640,34 @@
         <v>322</v>
       </c>
       <c r="F88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G88" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I88" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J88" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="L88" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="N88" t="s">
-        <v>832</v>
+        <v>759</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>927</v>
+        <v>809</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>959</v>
+        <v>816</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>1019</v>
+        <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7201,40 +6684,40 @@
         <v>324</v>
       </c>
       <c r="E89" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H89" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J89" t="s">
-        <v>578</v>
+        <v>211</v>
       </c>
       <c r="L89" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="N89" t="s">
-        <v>833</v>
+        <v>760</v>
       </c>
       <c r="O89" t="s">
-        <v>877</v>
+        <v>804</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>928</v>
+        <v>841</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>960</v>
+        <v>807</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>976</v>
+        <v>822</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>998</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7251,28 +6734,28 @@
         <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G90" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I90" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J90" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>740</v>
+        <v>672</v>
       </c>
       <c r="N90" t="s">
-        <v>834</v>
+        <v>761</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>929</v>
+        <v>842</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>1020</v>
+        <v>850</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7289,37 +6772,37 @@
         <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G91" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I91" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J91" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="L91" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="N91" t="s">
-        <v>835</v>
+        <v>762</v>
       </c>
       <c r="O91" t="s">
-        <v>878</v>
+        <v>805</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>961</v>
+        <v>807</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>977</v>
+        <v>822</v>
       </c>
       <c r="W91" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X91" t="s">
-        <v>1031</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7336,34 +6819,34 @@
         <v>324</v>
       </c>
       <c r="F92" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I92" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J92" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="K92" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="L92" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="N92" t="s">
-        <v>836</v>
+        <v>763</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>1021</v>
+        <v>850</v>
       </c>
       <c r="W92" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X92" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7380,25 +6863,25 @@
         <v>323</v>
       </c>
       <c r="F93" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J93" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="L93" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>741</v>
+        <v>672</v>
       </c>
       <c r="N93" t="s">
-        <v>837</v>
+        <v>764</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>962</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7418,28 +6901,28 @@
         <v>216</v>
       </c>
       <c r="F94" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G94" t="s">
         <v>322</v>
       </c>
       <c r="H94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J94" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>742</v>
+        <v>672</v>
       </c>
       <c r="N94" t="s">
-        <v>838</v>
+        <v>765</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>978</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7456,25 +6939,25 @@
         <v>329</v>
       </c>
       <c r="F95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G95" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I95" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J95" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="L95" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="N95" t="s">
-        <v>839</v>
+        <v>766</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>930</v>
+        <v>809</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7491,28 +6974,28 @@
         <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I96" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J96" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="L96" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>743</v>
+        <v>672</v>
       </c>
       <c r="N96" t="s">
-        <v>840</v>
+        <v>767</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>1022</v>
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -7529,40 +7012,40 @@
         <v>331</v>
       </c>
       <c r="E97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G97" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H97" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J97" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="K97" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="L97" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>744</v>
+        <v>672</v>
       </c>
       <c r="N97" t="s">
-        <v>841</v>
+        <v>768</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>931</v>
+        <v>843</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>991</v>
+        <v>848</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>1023</v>
+        <v>850</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -7579,28 +7062,28 @@
         <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I98" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J98" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="K98" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="L98" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="N98" t="s">
-        <v>842</v>
+        <v>769</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>932</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -7617,34 +7100,34 @@
         <v>323</v>
       </c>
       <c r="F99" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G99" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I99" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J99" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="L99" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>745</v>
+        <v>672</v>
       </c>
       <c r="N99" t="s">
-        <v>843</v>
+        <v>770</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>963</v>
+        <v>807</v>
       </c>
       <c r="W99" t="s">
-        <v>1025</v>
+        <v>852</v>
       </c>
       <c r="X99" t="s">
-        <v>1027</v>
+        <v>854</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -7661,31 +7144,31 @@
         <v>322</v>
       </c>
       <c r="E100" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G100" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H100" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J100" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="L100" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="N100" t="s">
+        <v>771</v>
+      </c>
+      <c r="O100" t="s">
+        <v>806</v>
+      </c>
+      <c r="P100" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="O100" t="s">
-        <v>879</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -7702,31 +7185,31 @@
         <v>324</v>
       </c>
       <c r="F101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G101" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I101" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J101" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="K101" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="L101" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="N101" t="s">
-        <v>845</v>
+        <v>772</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>937</v>
+        <v>847</v>
       </c>
       <c r="V101" s="2" t="s">
-        <v>1024</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/samples/SA-عينة-معروف-تجارة-الكترونية-preview.xlsx
+++ b/samples/SA-عينة-معروف-تجارة-الكترونية-preview.xlsx
@@ -1606,8 +1606,7 @@
     <t>بيع العطور الا...</t>
   </si>
   <si>
-    <t>مصممة جرافيك
-ب...</t>
+    <t>مصممة جرافيك ب...</t>
   </si>
   <si>
     <t>تطبيق توصيل طل...</t>
@@ -1616,8 +1615,7 @@
     <t>اقدم لكم جميع ...</t>
   </si>
   <si>
-    <t>حسابات ستيم 
-ب...</t>
+    <t>حسابات ستيم  ب...</t>
   </si>
   <si>
     <t>من مُتع الحياة...</t>
